--- a/src/pages/english/md/英语词汇分类记忆表格版.xlsx
+++ b/src/pages/english/md/英语词汇分类记忆表格版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30465" windowHeight="14130"/>
+    <workbookView windowWidth="22605" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,25 @@
     <t>red</t>
   </si>
   <si>
-    <t xml:space="preserve">skipping rope 跳绳 </t>
+    <r>
+      <t xml:space="preserve">skipping rope </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>跳绳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>lion狮子</t>
@@ -2341,6 +2359,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>pocitian</t>
     </r>
     <r>
@@ -2361,10 +2384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2403,14 +2426,21 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2422,13 +2452,48 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF3F3F76"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C6500"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2442,31 +2507,10 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFA7D00"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2504,29 +2548,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFA7D00"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2545,13 +2568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2563,31 +2592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,7 +2616,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,7 +2670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,31 +2688,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2665,67 +2742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2754,6 +2777,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2765,20 +2803,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2816,90 +2851,78 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3309,8 +3332,8 @@
   <sheetPr/>
   <dimension ref="A1:I323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B304" workbookViewId="0">
-      <selection activeCell="I330" sqref="I330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/src/pages/english/md/英语词汇分类记忆表格版.xlsx
+++ b/src/pages/english/md/英语词汇分类记忆表格版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22605" windowHeight="11940"/>
+    <workbookView windowWidth="23280" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="782">
   <si>
     <t>restaurant.餐馆</t>
   </si>
@@ -43,6 +43,9 @@
     <t>career职业</t>
   </si>
   <si>
+    <t>school subjects学校学科</t>
+  </si>
+  <si>
     <t>eating house 饮食店</t>
   </si>
   <si>
@@ -59,6 +62,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">skipping rope </t>
     </r>
     <r>
@@ -88,6 +96,9 @@
     <t>accountant: 会计</t>
   </si>
   <si>
+    <t>Math 数学</t>
+  </si>
+  <si>
     <t>canteen (机关单位和军队里的)食堂</t>
   </si>
   <si>
@@ -115,6 +126,9 @@
     <t>actor: 男演员</t>
   </si>
   <si>
+    <t>Art 艺术</t>
+  </si>
+  <si>
     <t>dining hall 大餐厅,食堂</t>
   </si>
   <si>
@@ -142,6 +156,9 @@
     <t>actress: 女演员</t>
   </si>
   <si>
+    <t>English 英语</t>
+  </si>
+  <si>
     <t>refectory (学校里的)餐厅</t>
   </si>
   <si>
@@ -169,6 +186,9 @@
     <t>anchor: 新闻主播</t>
   </si>
   <si>
+    <t>Music 音乐</t>
+  </si>
+  <si>
     <t>waiter 服务员</t>
   </si>
   <si>
@@ -196,6 +216,9 @@
     <t>announcer: 广播员</t>
   </si>
   <si>
+    <t>History 历史</t>
+  </si>
+  <si>
     <t>service 服务</t>
   </si>
   <si>
@@ -223,6 +246,9 @@
     <t>architect: 建筑师</t>
   </si>
   <si>
+    <t>Science 科学</t>
+  </si>
+  <si>
     <t>headwaiter, maitre d\'hotel 餐厅领班</t>
   </si>
   <si>
@@ -250,6 +276,9 @@
     <t>artist: 艺术家</t>
   </si>
   <si>
+    <t>Geography 地理位置</t>
+  </si>
+  <si>
     <t>bill of fare, menu 菜单,菜谱</t>
   </si>
   <si>
@@ -277,6 +306,9 @@
     <t>associate professor: 副教授</t>
   </si>
   <si>
+    <t>Information technology 信息技术</t>
+  </si>
+  <si>
     <t>wine list 酒单</t>
   </si>
   <si>
@@ -304,6 +336,9 @@
     <t>astronaut: 宇航员.</t>
   </si>
   <si>
+    <t>Biology 生物学</t>
+  </si>
+  <si>
     <t>table 餐桌</t>
   </si>
   <si>
@@ -331,6 +366,9 @@
     <t>attendant: 服务员</t>
   </si>
   <si>
+    <t>Drama 戏剧</t>
+  </si>
+  <si>
     <t>to lay the table, to set the table 摆桌子</t>
   </si>
   <si>
@@ -358,6 +396,9 @@
     <t>baker: 烘培师</t>
   </si>
   <si>
+    <t>Swimming 游泳</t>
+  </si>
+  <si>
     <t>to wait at table 侍候用餐</t>
   </si>
   <si>
@@ -380,6 +421,9 @@
   </si>
   <si>
     <t>barber: 理发师 (男)</t>
+  </si>
+  <si>
+    <t>Physical education 体育课</t>
   </si>
   <si>
     <t>to clear the table 收拾桌子,撤桌子</t>
@@ -2384,10 +2428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2428,7 +2472,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2440,25 +2484,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF9C0006"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF3F3F76"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2469,31 +2495,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2506,11 +2509,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF3F3F76"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2548,8 +2565,35 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFA7D00"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2568,7 +2612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2580,13 +2624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2598,7 +2678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,37 +2696,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,13 +2762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,49 +2774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2730,25 +2786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,6 +2803,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2773,47 +2828,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2860,6 +2874,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2871,58 +2915,58 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3330,10 +3374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:J323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3346,10 +3390,11 @@
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="42.375" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
+    <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3377,3274 +3422,3313 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="15" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:9">
       <c r="A62" s="3" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:9">
       <c r="A68" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="3" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="3" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="3" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="3" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="3" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="3" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="3" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="3" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="3" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="3" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="3" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="3" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="3" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="3" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="3" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:9">
       <c r="A125" s="6" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="3" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="3" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="3" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="3" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="3" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="3" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="3" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="3" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="3" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="3" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="3" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="3" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="3" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="3" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="3" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="3" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="3" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="3" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="3" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="3" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="3" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="3" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="3" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="3" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="3" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="3" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="3" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="3" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="3" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="3" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="3" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="3" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="3" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="3" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="3" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="3" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="3" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="3" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="3" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="3" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="3" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="3" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="3" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="3" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="3" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="3" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="3" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="3" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="3" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="3" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="3" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="3" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="3" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="3" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="3" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="3" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="3" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="3" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="3" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="3" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="3" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="3" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="3" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="3" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="3" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="3" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="3" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="3" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="3" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="3" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="3" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="3" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="3" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="3" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="3" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="3" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="3" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="3" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="3" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="3" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="3" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="3" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="3" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="3" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="3" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="3" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="3" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="3" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="3" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="3" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="3" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="3" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="3" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="3" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="3" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="3" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="3" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="3" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="3" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="3" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="3" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="3" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="3" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="3" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="3" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="3" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="3" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="3" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="3" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="3" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="3" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="3" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="3" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="3" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="3" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="3" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="3" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="3" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="3" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="3" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="3" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="3" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="3" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="3" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="3" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="3" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="3" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="3" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="3" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="3" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="3" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="3" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="3" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="3" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="3" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="3" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="3" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="3" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="3" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="3" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="3" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="3" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="3" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="3" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="3" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="3" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="3" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="3" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="3" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="3" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="3" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="3" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="3" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="3" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="5" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="296" spans="9:9">
       <c r="I296" s="3" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="297" spans="9:9">
       <c r="I297" s="3" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="298" spans="9:9">
       <c r="I298" s="3" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="299" spans="9:9">
       <c r="I299" s="3" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
     </row>
     <row r="300" spans="9:9">
       <c r="I300" s="3" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="301" spans="9:9">
       <c r="I301" s="3" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
     </row>
     <row r="302" spans="9:9">
       <c r="I302" s="3" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="303" spans="9:9">
       <c r="I303" s="3" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="304" spans="9:9">
       <c r="I304" s="3" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="305" spans="9:9">
       <c r="I305" s="3" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="306" spans="9:9">
       <c r="I306" s="3" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="307" spans="9:9">
       <c r="I307" s="3" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="308" spans="9:9">
       <c r="I308" s="3" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="309" spans="9:9">
       <c r="I309" s="3" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="310" spans="9:9">
       <c r="I310" s="3" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="311" spans="9:9">
       <c r="I311" s="3" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="312" spans="9:9">
       <c r="I312" s="3" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="313" spans="9:9">
       <c r="I313" s="3" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="314" spans="9:9">
       <c r="I314" s="3" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="315" spans="9:9">
       <c r="I315" s="3" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="316" spans="9:9">
       <c r="I316" s="3" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="317" spans="9:9">
       <c r="I317" s="3" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="318" spans="9:9">
       <c r="I318" s="3" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="319" spans="9:9">
       <c r="I319" s="3" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="320" spans="9:9">
       <c r="I320" s="3" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="321" spans="9:9">
       <c r="I321" s="3" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="322" spans="9:9">
       <c r="I322" s="3" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="323" spans="9:9">
       <c r="I323" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/english/md/英语词汇分类记忆表格版.xlsx
+++ b/src/pages/english/md/英语词汇分类记忆表格版.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -2428,10 +2429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2470,19 +2471,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
@@ -2491,6 +2479,12 @@
     <font>
       <sz val="16"/>
       <color rgb="FF9C6500"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2515,9 +2509,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2528,6 +2521,13 @@
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2581,6 +2581,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
@@ -2588,12 +2595,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFA7D00"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -2612,13 +2613,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2630,139 +2661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2780,19 +2685,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2803,17 +2804,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2889,6 +2879,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2915,58 +2916,58 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3377,7 +3378,7 @@
   <dimension ref="A1:J323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6735,4 +6736,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/pages/english/md/英语词汇分类记忆表格版.xlsx
+++ b/src/pages/english/md/英语词汇分类记忆表格版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="24675" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="2178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="2223">
   <si>
     <t>restaurant.餐馆</t>
   </si>
@@ -113,7 +113,7 @@
     <t>arranging a party组织活动</t>
   </si>
   <si>
-    <t>school related 学校相关</t>
+    <t>school related 学校学科学位</t>
   </si>
   <si>
     <t>aches and pains疼痛部位</t>
@@ -5207,567 +5207,627 @@
     <t>floor 地板</t>
   </si>
   <si>
+    <t>textbook 教科书；课本</t>
+  </si>
+  <si>
+    <t>track suit 田径服</t>
+  </si>
+  <si>
+    <t>april 四月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bean curd sheet 腐皮 </t>
+  </si>
+  <si>
+    <t>jellyfish水母</t>
+  </si>
+  <si>
+    <t>lawyer :律师</t>
+  </si>
+  <si>
+    <t>handle 手柄；把手</t>
+  </si>
+  <si>
+    <t>strong 强壮的</t>
+  </si>
+  <si>
+    <t>may 五月</t>
+  </si>
+  <si>
+    <t>tofu 豆腐</t>
+  </si>
+  <si>
+    <t>duck 鸭</t>
+  </si>
+  <si>
+    <t>librarian: 图书管理员.</t>
+  </si>
+  <si>
+    <t>welfare 健康；幸福；福利</t>
+  </si>
+  <si>
+    <t>confident 自信的</t>
+  </si>
+  <si>
+    <t>june 六月</t>
+  </si>
+  <si>
+    <t>chinese red pepper 花椒</t>
+  </si>
+  <si>
+    <t>life guard :救生员</t>
+  </si>
+  <si>
+    <t>absent 缺席的</t>
+  </si>
+  <si>
+    <t>july 七月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salt black bean 豆鼓 </t>
+  </si>
+  <si>
+    <t>noodles 面条,挂面</t>
+  </si>
+  <si>
+    <t>magician :魔术师</t>
+  </si>
+  <si>
+    <t>lamp 灯</t>
+  </si>
+  <si>
+    <t>clever 聪明伶俐的</t>
+  </si>
+  <si>
+    <t>august 八月</t>
+  </si>
+  <si>
+    <t>dried fish 鱼干</t>
+  </si>
+  <si>
+    <t>milk 奶</t>
+  </si>
+  <si>
+    <t>masseur : 男按摩师</t>
+  </si>
+  <si>
+    <t>plug 插座；插头</t>
+  </si>
+  <si>
+    <t>fair 公平的；公正的</t>
+  </si>
+  <si>
+    <t>september 九月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea vegetable or sea weed 海带 </t>
+  </si>
+  <si>
+    <t>cheese 奶酪</t>
+  </si>
+  <si>
+    <t>masseuse : 女按摩师</t>
+  </si>
+  <si>
+    <t>switch 开关</t>
+  </si>
+  <si>
+    <t>funny 有趣的；可笑的</t>
+  </si>
+  <si>
+    <t>october 十月</t>
+  </si>
+  <si>
+    <t>green bean 绿豆</t>
+  </si>
+  <si>
+    <t>butter 奶油</t>
+  </si>
+  <si>
+    <t>mathematician : 数学家</t>
+  </si>
+  <si>
+    <t>toy 玩具</t>
+  </si>
+  <si>
+    <t>intelligent 聪明的</t>
+  </si>
+  <si>
+    <t>november 十一月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red bean 红豆 </t>
+  </si>
+  <si>
+    <t>mechanic: 机械师 ,机修工</t>
+  </si>
+  <si>
+    <t>vase 花瓶</t>
+  </si>
+  <si>
+    <t>kind 友好的；和善的</t>
+  </si>
+  <si>
+    <t>december 十二月</t>
+  </si>
+  <si>
+    <t>black bean 黑豆</t>
+  </si>
+  <si>
+    <t>slice of bread 面包片</t>
+  </si>
+  <si>
+    <t>miner: 矿工</t>
+  </si>
+  <si>
+    <t>bedroom and bathroom卧室和浴室</t>
+  </si>
+  <si>
+    <t>patient 耐心的</t>
+  </si>
+  <si>
+    <t>average 平均的；普通的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red kidney bean 大红豆 </t>
+  </si>
+  <si>
+    <t>egg 蛋</t>
+  </si>
+  <si>
+    <t>model: 模特儿</t>
+  </si>
+  <si>
+    <t>alarm clock 闹钟</t>
+  </si>
+  <si>
+    <t>punctual 守时的</t>
+  </si>
+  <si>
+    <t>typical 典型的</t>
+  </si>
+  <si>
+    <t>dried black mushroom 冬菇</t>
+  </si>
+  <si>
+    <t>fried eggs 煎蛋</t>
+  </si>
+  <si>
+    <t>monk : 和尚,教士</t>
+  </si>
+  <si>
+    <t>basin 洗脸盆</t>
+  </si>
+  <si>
+    <t>serious 严肃的；认真的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pickled mustard-green 酸菜 </t>
+  </si>
+  <si>
+    <t>boiled eggs, soft-boiled eggs 水煮蛋</t>
+  </si>
+  <si>
+    <t>movie director: 导演</t>
+  </si>
+  <si>
+    <t>blind 窗帘；百叶窗</t>
+  </si>
+  <si>
+    <t>reasonable 合理的</t>
+  </si>
+  <si>
+    <t>silk noodles 粉丝</t>
+  </si>
+  <si>
+    <t>biscuits (英)饼干,(美)小面包</t>
+  </si>
+  <si>
+    <t>movie star : 电影明星</t>
+  </si>
+  <si>
+    <t>chest of drawer 抽屉柜</t>
+  </si>
+  <si>
+    <t>strict 严格的</t>
+  </si>
+  <si>
+    <t>star anise 八角</t>
+  </si>
+  <si>
+    <t>pigs liver 猪肝</t>
+  </si>
+  <si>
+    <t>musician : 音乐家</t>
+  </si>
+  <si>
+    <t>mirror 镜子</t>
+  </si>
+  <si>
+    <t>failure an exam 考试不及格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanton skin 馄饨皮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pigs feet 猪脚 </t>
+  </si>
+  <si>
+    <t>nun : 尼姑</t>
+  </si>
+  <si>
+    <t>pillow 枕头</t>
+  </si>
+  <si>
+    <t>hand in homework 交作业</t>
+  </si>
+  <si>
+    <t>dried chestnuts 干粟子</t>
+  </si>
+  <si>
+    <t>pigs kidney 猪腰</t>
+  </si>
+  <si>
+    <t>nurse: 护士</t>
+  </si>
+  <si>
+    <t>radio 收音机</t>
+  </si>
+  <si>
+    <t>make progress 取得进步</t>
+  </si>
+  <si>
+    <t>red date 红枣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pigs hearts 猪心 </t>
+  </si>
+  <si>
+    <t>office clerk : 职员</t>
+  </si>
+  <si>
+    <t>mark homework 批改作业</t>
+  </si>
+  <si>
+    <t>muter 木耳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hock 蹄膀 </t>
+  </si>
+  <si>
+    <t>office staff 上班族</t>
+  </si>
+  <si>
+    <t>sheet 被单</t>
+  </si>
+  <si>
+    <t>pass an exam 考试及格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dried shrimps 虾米 </t>
+  </si>
+  <si>
+    <t>cowheels 牛筋</t>
+  </si>
+  <si>
+    <t>operator: 接线员</t>
+  </si>
+  <si>
+    <t>tap 龙头</t>
+  </si>
+  <si>
+    <t>revise 复习</t>
+  </si>
+  <si>
+    <t>cashew nuts 腰果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod 鳕 </t>
+  </si>
+  <si>
+    <t>parachutist: 跳伞人.</t>
+  </si>
+  <si>
+    <t>towel 毛巾</t>
+  </si>
+  <si>
+    <t>study 学习；书房</t>
+  </si>
+  <si>
+    <t>·中式早点</t>
+  </si>
+  <si>
+    <t>carp 鲤鱼</t>
+  </si>
+  <si>
+    <t>personnel 职员</t>
+  </si>
+  <si>
+    <t>take an exam 参加考试</t>
+  </si>
+  <si>
+    <t>烧饼     clay oven rolls</t>
+  </si>
+  <si>
+    <t>lobster 龙虾</t>
+  </si>
+  <si>
+    <t>pharmacist药剂师</t>
+  </si>
+  <si>
+    <t>learning a language学语言</t>
+  </si>
+  <si>
+    <t>油条     fried bread stick</t>
+  </si>
+  <si>
+    <t>photographer:摄影师</t>
+  </si>
+  <si>
+    <t>pronunciation 发音</t>
+  </si>
+  <si>
+    <t>水饺     boiled dumplings</t>
+  </si>
+  <si>
+    <t>pilot: 飞行员</t>
+  </si>
+  <si>
+    <t>reading 阅读；朗读；阅读材料</t>
+  </si>
+  <si>
+    <t>蒸饺     steamed dumplings</t>
+  </si>
+  <si>
+    <t>planner: 计划员</t>
+  </si>
+  <si>
+    <t>speaking 说话；谈话；演讲</t>
+  </si>
+  <si>
+    <t>馒头     steamed buns</t>
+  </si>
+  <si>
+    <t>policeman: 警察</t>
+  </si>
+  <si>
+    <t>spelling 拼写</t>
+  </si>
+  <si>
+    <t>饭团     rice and vegetable roll</t>
+  </si>
+  <si>
+    <t>postal clerk: 邮政人员</t>
+  </si>
+  <si>
+    <t>vocabulary 词汇</t>
+  </si>
+  <si>
+    <t>蛋饼     egg cakes</t>
+  </si>
+  <si>
+    <t>postman :邮差</t>
+  </si>
+  <si>
+    <t>writing 写作；书写</t>
+  </si>
+  <si>
+    <t>咸鸭蛋    salted duck egg</t>
+  </si>
+  <si>
+    <t>president: 总统</t>
+  </si>
+  <si>
+    <t>interpret 解释；口译；翻译</t>
+  </si>
+  <si>
+    <t>豆浆     soybean milk</t>
+  </si>
+  <si>
+    <t>priest: 牧师</t>
+  </si>
+  <si>
+    <t>say 说</t>
+  </si>
+  <si>
+    <t xml:space="preserve">·饭 类 </t>
+  </si>
+  <si>
+    <t>processfor: 教授</t>
+  </si>
+  <si>
+    <t>translate 解释；翻译</t>
+  </si>
+  <si>
+    <t>稀饭     rice porridge</t>
+  </si>
+  <si>
+    <t>real estate agent: 房地产经纪人</t>
+  </si>
+  <si>
+    <t>kindergarten 幼儿园</t>
+  </si>
+  <si>
+    <t>白饭     plain white rice</t>
+  </si>
+  <si>
+    <t>receptionist :接待员</t>
+  </si>
+  <si>
+    <t>play school幼儿园</t>
+  </si>
+  <si>
+    <t>油饭     glutinous oil rice</t>
+  </si>
+  <si>
+    <t>repairman :修理工人</t>
+  </si>
+  <si>
+    <t>infants' school 幼儿园，婴儿，更小的年龄</t>
+  </si>
+  <si>
+    <t>糯米饭    glutinous rice</t>
+  </si>
+  <si>
+    <t>reporter : 记者</t>
+  </si>
+  <si>
+    <t>nursery school 幼儿园</t>
+  </si>
+  <si>
+    <t>卤肉饭    braised pork rice</t>
+  </si>
+  <si>
+    <t>sailor: 船员，水手</t>
+  </si>
+  <si>
+    <t>child care center托儿中心；护幼中心</t>
+  </si>
+  <si>
+    <t>蛋炒饭    fried rice with egg</t>
+  </si>
+  <si>
+    <t>salesman/ selespeople/ salesperson: 售货员</t>
+  </si>
+  <si>
+    <t>preschool 幼儿园 学前班</t>
+  </si>
+  <si>
+    <t>地瓜粥    sweet potato congee</t>
+  </si>
+  <si>
+    <t>scientist: 科学家</t>
+  </si>
+  <si>
+    <t>primary school 小学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">·果 汁 </t>
+  </si>
+  <si>
+    <t>seamstress 女装裁缝师</t>
+  </si>
+  <si>
+    <t>elementary school 小学</t>
+  </si>
+  <si>
+    <t>甘蔗汁    sugar cane juice</t>
+  </si>
+  <si>
+    <t>secretary: 秘书</t>
+  </si>
+  <si>
+    <t>grade school 小学</t>
+  </si>
+  <si>
+    <t>酸梅汁    plum juice</t>
+  </si>
+  <si>
+    <t>singer: 歌手</t>
+  </si>
+  <si>
+    <t>primary grades 小学低年级</t>
+  </si>
+  <si>
+    <t>杨桃汁    star fruit juice</t>
+  </si>
+  <si>
+    <t>soldiery: 士兵,军人</t>
+  </si>
+  <si>
+    <t>middle school 中学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青草茶    herb juice </t>
+  </si>
+  <si>
+    <t>statistician : 统计员</t>
+  </si>
+  <si>
     <t>secondary school 中学</t>
   </si>
   <si>
-    <t>track suit 田径服</t>
-  </si>
-  <si>
-    <t>april 四月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bean curd sheet 腐皮 </t>
-  </si>
-  <si>
-    <t>jellyfish水母</t>
-  </si>
-  <si>
-    <t>lawyer :律师</t>
-  </si>
-  <si>
-    <t>handle 手柄；把手</t>
-  </si>
-  <si>
-    <t>textbook 教科书；课本</t>
-  </si>
-  <si>
-    <t>strong 强壮的</t>
-  </si>
-  <si>
-    <t>may 五月</t>
-  </si>
-  <si>
-    <t>tofu 豆腐</t>
-  </si>
-  <si>
-    <t>duck 鸭</t>
-  </si>
-  <si>
-    <t>librarian: 图书管理员.</t>
-  </si>
-  <si>
-    <t>confident 自信的</t>
-  </si>
-  <si>
-    <t>june 六月</t>
-  </si>
-  <si>
-    <t>chinese red pepper 花椒</t>
-  </si>
-  <si>
-    <t>life guard :救生员</t>
-  </si>
-  <si>
-    <t>welfare 健康；幸福；福利</t>
-  </si>
-  <si>
-    <t>july 七月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salt black bean 豆鼓 </t>
-  </si>
-  <si>
-    <t>noodles 面条,挂面</t>
-  </si>
-  <si>
-    <t>magician :魔术师</t>
-  </si>
-  <si>
-    <t>lamp 灯</t>
-  </si>
-  <si>
-    <t>absent 缺席的</t>
-  </si>
-  <si>
-    <t>august 八月</t>
-  </si>
-  <si>
-    <t>dried fish 鱼干</t>
-  </si>
-  <si>
-    <t>milk 奶</t>
-  </si>
-  <si>
-    <t>masseur : 男按摩师</t>
-  </si>
-  <si>
-    <t>plug 插座；插头</t>
-  </si>
-  <si>
-    <t>clever 聪明伶俐的</t>
-  </si>
-  <si>
-    <t>september 九月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea vegetable or sea weed 海带 </t>
-  </si>
-  <si>
-    <t>cheese 奶酪</t>
-  </si>
-  <si>
-    <t>masseuse : 女按摩师</t>
-  </si>
-  <si>
-    <t>switch 开关</t>
-  </si>
-  <si>
-    <t>fair 公平的；公正的</t>
-  </si>
-  <si>
-    <t>october 十月</t>
-  </si>
-  <si>
-    <t>green bean 绿豆</t>
-  </si>
-  <si>
-    <t>butter 奶油</t>
-  </si>
-  <si>
-    <t>mathematician : 数学家</t>
-  </si>
-  <si>
-    <t>toy 玩具</t>
-  </si>
-  <si>
-    <t>funny 有趣的；可笑的</t>
-  </si>
-  <si>
-    <t>november 十一月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red bean 红豆 </t>
-  </si>
-  <si>
-    <t>mechanic: 机械师 ,机修工</t>
-  </si>
-  <si>
-    <t>vase 花瓶</t>
-  </si>
-  <si>
-    <t>intelligent 聪明的</t>
-  </si>
-  <si>
-    <t>december 十二月</t>
-  </si>
-  <si>
-    <t>black bean 黑豆</t>
-  </si>
-  <si>
-    <t>slice of bread 面包片</t>
-  </si>
-  <si>
-    <t>miner: 矿工</t>
-  </si>
-  <si>
-    <t>bedroom and bathroom卧室和浴室</t>
-  </si>
-  <si>
-    <t>kind 友好的；和善的</t>
-  </si>
-  <si>
-    <t>average 平均的；普通的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red kidney bean 大红豆 </t>
-  </si>
-  <si>
-    <t>egg 蛋</t>
-  </si>
-  <si>
-    <t>model: 模特儿</t>
-  </si>
-  <si>
-    <t>alarm clock 闹钟</t>
-  </si>
-  <si>
-    <t>patient 耐心的</t>
-  </si>
-  <si>
-    <t>typical 典型的</t>
-  </si>
-  <si>
-    <t>dried black mushroom 冬菇</t>
-  </si>
-  <si>
-    <t>fried eggs 煎蛋</t>
-  </si>
-  <si>
-    <t>monk : 和尚,教士</t>
-  </si>
-  <si>
-    <t>basin 洗脸盆</t>
-  </si>
-  <si>
-    <t>punctual 守时的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pickled mustard-green 酸菜 </t>
-  </si>
-  <si>
-    <t>boiled eggs, soft-boiled eggs 水煮蛋</t>
-  </si>
-  <si>
-    <t>movie director: 导演</t>
-  </si>
-  <si>
-    <t>blind 窗帘；百叶窗</t>
-  </si>
-  <si>
-    <t>serious 严肃的；认真的</t>
-  </si>
-  <si>
-    <t>silk noodles 粉丝</t>
-  </si>
-  <si>
-    <t>biscuits (英)饼干,(美)小面包</t>
-  </si>
-  <si>
-    <t>movie star : 电影明星</t>
-  </si>
-  <si>
-    <t>chest of drawer 抽屉柜</t>
-  </si>
-  <si>
-    <t>reasonable 合理的</t>
-  </si>
-  <si>
-    <t>star anise 八角</t>
-  </si>
-  <si>
-    <t>pigs liver 猪肝</t>
-  </si>
-  <si>
-    <t>musician : 音乐家</t>
-  </si>
-  <si>
-    <t>mirror 镜子</t>
-  </si>
-  <si>
-    <t>strict 严格的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wanton skin 馄饨皮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pigs feet 猪脚 </t>
-  </si>
-  <si>
-    <t>nun : 尼姑</t>
-  </si>
-  <si>
-    <t>pillow 枕头</t>
-  </si>
-  <si>
-    <t>failure an exam 考试不及格</t>
-  </si>
-  <si>
-    <t>dried chestnuts 干粟子</t>
-  </si>
-  <si>
-    <t>pigs kidney 猪腰</t>
-  </si>
-  <si>
-    <t>nurse: 护士</t>
-  </si>
-  <si>
-    <t>radio 收音机</t>
-  </si>
-  <si>
-    <t>hand in homework 交作业</t>
-  </si>
-  <si>
-    <t>red date 红枣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pigs hearts 猪心 </t>
-  </si>
-  <si>
-    <t>office clerk : 职员</t>
-  </si>
-  <si>
-    <t>make progress 取得进步</t>
-  </si>
-  <si>
-    <t>muter 木耳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hock 蹄膀 </t>
-  </si>
-  <si>
-    <t>office staff 上班族</t>
-  </si>
-  <si>
-    <t>sheet 被单</t>
-  </si>
-  <si>
-    <t>mark homework 批改作业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dried shrimps 虾米 </t>
-  </si>
-  <si>
-    <t>cowheels 牛筋</t>
-  </si>
-  <si>
-    <t>operator: 接线员</t>
-  </si>
-  <si>
-    <t>tap 龙头</t>
-  </si>
-  <si>
-    <t>pass an exam 考试及格</t>
-  </si>
-  <si>
-    <t>cashew nuts 腰果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod 鳕 </t>
-  </si>
-  <si>
-    <t>parachutist: 跳伞人.</t>
-  </si>
-  <si>
-    <t>towel 毛巾</t>
-  </si>
-  <si>
-    <t>revise 复习</t>
-  </si>
-  <si>
-    <t>·中式早点</t>
-  </si>
-  <si>
-    <t>carp 鲤鱼</t>
-  </si>
-  <si>
-    <t>personnel 职员</t>
-  </si>
-  <si>
-    <t>study 学习；书房</t>
-  </si>
-  <si>
-    <t>烧饼     clay oven rolls</t>
-  </si>
-  <si>
-    <t>lobster 龙虾</t>
-  </si>
-  <si>
-    <t>pharmacist药剂师</t>
-  </si>
-  <si>
-    <t>take an exam 参加考试</t>
-  </si>
-  <si>
-    <t>油条     fried bread stick</t>
-  </si>
-  <si>
-    <t>photographer:摄影师</t>
-  </si>
-  <si>
-    <t>learning a language学语言</t>
-  </si>
-  <si>
-    <t>水饺     boiled dumplings</t>
-  </si>
-  <si>
-    <t>pilot: 飞行员</t>
-  </si>
-  <si>
-    <t>pronunciation 发音</t>
-  </si>
-  <si>
-    <t>蒸饺     steamed dumplings</t>
-  </si>
-  <si>
-    <t>planner: 计划员</t>
-  </si>
-  <si>
-    <t>reading 阅读；朗读；阅读材料</t>
-  </si>
-  <si>
-    <t>馒头     steamed buns</t>
-  </si>
-  <si>
-    <t>policeman: 警察</t>
-  </si>
-  <si>
-    <t>speaking 说话；谈话；演讲</t>
-  </si>
-  <si>
-    <t>饭团     rice and vegetable roll</t>
-  </si>
-  <si>
-    <t>postal clerk: 邮政人员</t>
-  </si>
-  <si>
-    <t>spelling 拼写</t>
-  </si>
-  <si>
-    <t>蛋饼     egg cakes</t>
-  </si>
-  <si>
-    <t>postman :邮差</t>
-  </si>
-  <si>
-    <t>vocabulary 词汇</t>
-  </si>
-  <si>
-    <t>咸鸭蛋    salted duck egg</t>
-  </si>
-  <si>
-    <t>president: 总统</t>
-  </si>
-  <si>
-    <t>writing 写作；书写</t>
-  </si>
-  <si>
-    <t>豆浆     soybean milk</t>
-  </si>
-  <si>
-    <t>priest: 牧师</t>
-  </si>
-  <si>
-    <t>interpret 解释；口译；翻译</t>
-  </si>
-  <si>
-    <t xml:space="preserve">·饭 类 </t>
-  </si>
-  <si>
-    <t>processfor: 教授</t>
-  </si>
-  <si>
-    <t>say 说</t>
-  </si>
-  <si>
-    <t>稀饭     rice porridge</t>
-  </si>
-  <si>
-    <t>real estate agent: 房地产经纪人</t>
-  </si>
-  <si>
-    <t>translate 解释；翻译</t>
-  </si>
-  <si>
-    <t>白饭     plain white rice</t>
-  </si>
-  <si>
-    <t>receptionist :接待员</t>
-  </si>
-  <si>
-    <t>油饭     glutinous oil rice</t>
-  </si>
-  <si>
-    <t>repairman :修理工人</t>
-  </si>
-  <si>
-    <t>糯米饭    glutinous rice</t>
-  </si>
-  <si>
-    <t>reporter : 记者</t>
-  </si>
-  <si>
-    <t>卤肉饭    braised pork rice</t>
-  </si>
-  <si>
-    <t>sailor: 船员，水手</t>
-  </si>
-  <si>
-    <t>蛋炒饭    fried rice with egg</t>
-  </si>
-  <si>
-    <t>salesman/ selespeople/ salesperson: 售货员</t>
-  </si>
-  <si>
-    <t>地瓜粥    sweet potato congee</t>
-  </si>
-  <si>
-    <t>scientist: 科学家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">·果 汁 </t>
-  </si>
-  <si>
-    <t>seamstress 女装裁缝师</t>
-  </si>
-  <si>
-    <t>甘蔗汁    sugar cane juice</t>
-  </si>
-  <si>
-    <t>secretary: 秘书</t>
-  </si>
-  <si>
-    <t>酸梅汁    plum juice</t>
-  </si>
-  <si>
-    <t>singer: 歌手</t>
-  </si>
-  <si>
-    <t>杨桃汁    star fruit juice</t>
-  </si>
-  <si>
-    <t>soldiery: 士兵,军人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青草茶    herb juice </t>
-  </si>
-  <si>
-    <t>statistician : 统计员</t>
-  </si>
-  <si>
     <t>·点 心</t>
   </si>
   <si>
     <t>surveyor: 测量技师</t>
   </si>
   <si>
+    <t>junior high school 初中</t>
+  </si>
+  <si>
     <t>春卷     spring rolls</t>
   </si>
   <si>
     <t>tailor: 裁缝师</t>
   </si>
   <si>
+    <t>junior high  初中</t>
+  </si>
+  <si>
     <t>蛋卷     chicken rolls</t>
   </si>
   <si>
     <t>taxi driver计程车司机</t>
   </si>
   <si>
+    <t>junior middle school 初中</t>
+  </si>
+  <si>
     <t>红豆糕    red bean cake</t>
   </si>
   <si>
     <t>teacher: 教师</t>
   </si>
   <si>
+    <t>High School 高中</t>
+  </si>
+  <si>
     <t>绿豆糕    bean paste cake</t>
   </si>
   <si>
     <t>technician : 技术人员</t>
   </si>
   <si>
+    <t>senior middle school 高中</t>
+  </si>
+  <si>
     <t>糯米糕    glutinous rice cakes</t>
   </si>
   <si>
     <t>tour guide: 导游</t>
   </si>
   <si>
+    <t>Pre-college 高中</t>
+  </si>
+  <si>
     <t>萝卜糕    fried white radish patty</t>
   </si>
   <si>
     <t>traffic warden: 交通管理员.</t>
   </si>
   <si>
+    <t>high school junior 高三学生</t>
+  </si>
+  <si>
     <t>芋头糕    taro cake</t>
   </si>
   <si>
     <t>translator: 翻译（笔译）</t>
   </si>
   <si>
+    <t>senior three  高三</t>
+  </si>
+  <si>
     <t>肉圆     taiwanese meatballs</t>
   </si>
   <si>
     <t>tv producer: 电视制作人</t>
   </si>
   <si>
+    <t>university 大学</t>
+  </si>
+  <si>
     <t>水晶饺    pyramid dumplings</t>
   </si>
   <si>
@@ -5780,97 +5840,172 @@
     <t>vet: 兽医</t>
   </si>
   <si>
+    <t>First-year University 大学一年级</t>
+  </si>
+  <si>
     <t xml:space="preserve">豆干     dried tofu </t>
   </si>
   <si>
     <t>veterinarian兽医</t>
   </si>
   <si>
+    <t>trade school 职业学校，中专</t>
+  </si>
+  <si>
     <t xml:space="preserve">·其 他 </t>
   </si>
   <si>
     <t>waiter: 侍者(服务生)</t>
   </si>
   <si>
+    <t>vocational school 职业学校</t>
+  </si>
+  <si>
     <t>火锅     hot pot</t>
   </si>
   <si>
     <t>waitress: 女侍者(服务生)</t>
   </si>
   <si>
+    <t>technical secondary school 中专</t>
+  </si>
+  <si>
     <t>国外生活必备英文词汇全搜索－饮食篇1</t>
   </si>
   <si>
     <t>welder : 焊接工</t>
   </si>
   <si>
+    <t>junior college 大专</t>
+  </si>
+  <si>
     <t>餐具：</t>
   </si>
   <si>
     <t>writer: 作家</t>
   </si>
   <si>
+    <t>Associate Degree大专毕业证</t>
+  </si>
+  <si>
     <t xml:space="preserve">coffee pot 咖啡壶 </t>
   </si>
   <si>
     <t>回答者：duyiran - 高级魔法师 七级 3-18 12:38</t>
   </si>
   <si>
+    <t>DEC 大专毕业证</t>
+  </si>
+  <si>
     <t xml:space="preserve">coffee cup 咖啡杯 </t>
   </si>
   <si>
+    <t>Junior College Diploma 大专毕业证</t>
+  </si>
+  <si>
     <t xml:space="preserve">paper towel 纸巾 </t>
   </si>
   <si>
+    <t>Professional Training College Diploma</t>
+  </si>
+  <si>
     <t xml:space="preserve">napkin 餐巾 </t>
   </si>
   <si>
+    <t>Diploma 毕业证</t>
+  </si>
+  <si>
     <t xml:space="preserve">table cloth 桌布 </t>
   </si>
   <si>
+    <t>regular college course本科；高等学校本科</t>
+  </si>
+  <si>
     <t xml:space="preserve">tea -pot 茶壶 </t>
   </si>
   <si>
+    <t>undergraduate course本科课程</t>
+  </si>
+  <si>
     <t xml:space="preserve">tea set 茶具 </t>
   </si>
   <si>
     <t>budgeteer: 预算编制者</t>
   </si>
   <si>
+    <t>undergraduate 大学本科生</t>
+  </si>
+  <si>
     <t xml:space="preserve">tea tray 茶盘 </t>
   </si>
   <si>
+    <t>undergraduate degree  学士学位</t>
+  </si>
+  <si>
     <t xml:space="preserve">caddy 茶罐 </t>
   </si>
   <si>
+    <t>bachelor's degree 学士学位</t>
+  </si>
+  <si>
     <t xml:space="preserve">dish 碟 </t>
   </si>
   <si>
+    <t>master 硕士，主人等代表管理主导人物</t>
+  </si>
+  <si>
     <t xml:space="preserve">plate 盘 </t>
   </si>
   <si>
+    <t>mti 硕士</t>
+  </si>
+  <si>
     <t xml:space="preserve">saucer 小碟子 </t>
   </si>
   <si>
+    <t>master degree 硕士学位 MFA</t>
+  </si>
+  <si>
     <t xml:space="preserve">rice bowl 饭碗 </t>
   </si>
   <si>
+    <t>Master of Business Administration工商管理硕士</t>
+  </si>
+  <si>
     <t xml:space="preserve">chopsticks 筷子 </t>
   </si>
   <si>
+    <t>MBA 工商管理硕士</t>
+  </si>
+  <si>
     <t xml:space="preserve">soup spoon 汤匙 </t>
   </si>
   <si>
+    <t>doctorate 博士学位</t>
+  </si>
+  <si>
     <t xml:space="preserve">knife 餐刀 </t>
   </si>
   <si>
+    <t>Doctoral degree  PhD  Doctor Degree博士学位</t>
+  </si>
+  <si>
     <t xml:space="preserve">cup 杯子 </t>
   </si>
   <si>
+    <t>Continuing education 继续再教育</t>
+  </si>
+  <si>
     <t xml:space="preserve">glass 玻璃杯 </t>
   </si>
   <si>
+    <t>The adult university 成人大学</t>
+  </si>
+  <si>
     <t xml:space="preserve">mug 马克杯 </t>
+  </si>
+  <si>
+    <t>network school  网校</t>
   </si>
   <si>
     <t xml:space="preserve">picnic lunch 便当 </t>
@@ -6556,9 +6691,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -6568,14 +6703,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF9C6500"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6589,19 +6719,31 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF3F3F76"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6614,9 +6756,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6624,6 +6765,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6636,9 +6784,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="TimesNewRomanPSMT"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF7F7F7F"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6651,28 +6812,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6684,14 +6824,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="TimesNewRomanPSMT"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
       <charset val="0"/>
     </font>
@@ -6705,7 +6840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6717,7 +6876,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6735,31 +6906,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6771,19 +6990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6795,97 +7020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6896,6 +7031,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6914,13 +7067,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6940,35 +7097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6999,67 +7132,69 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7457,8 +7592,8 @@
   <sheetPr/>
   <dimension ref="A1:AX323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="AJ55" workbookViewId="0">
+      <selection activeCell="AO75" sqref="AO75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7494,7 +7629,7 @@
     <col min="30" max="30" width="23.75" customWidth="1"/>
     <col min="31" max="31" width="52.625" customWidth="1"/>
     <col min="32" max="32" width="36" customWidth="1"/>
-    <col min="33" max="33" width="34.875" customWidth="1"/>
+    <col min="33" max="33" width="42.25" customWidth="1"/>
     <col min="34" max="34" width="26" customWidth="1"/>
     <col min="35" max="35" width="54.875" customWidth="1"/>
     <col min="36" max="36" width="29.375" customWidth="1"/>
@@ -8823,7 +8958,6 @@
       <c r="AE9" t="s">
         <v>422</v>
       </c>
-      <c r="AF9"/>
       <c r="AG9" t="s">
         <v>423</v>
       </c>
@@ -8973,7 +9107,6 @@
       <c r="AE10" t="s">
         <v>469</v>
       </c>
-      <c r="AF10"/>
       <c r="AG10" t="s">
         <v>470</v>
       </c>
@@ -9123,7 +9256,6 @@
       <c r="AE11" t="s">
         <v>514</v>
       </c>
-      <c r="AF11"/>
       <c r="AG11" t="s">
         <v>515</v>
       </c>
@@ -9231,7 +9363,6 @@
       <c r="Q12" t="s">
         <v>546</v>
       </c>
-      <c r="R12"/>
       <c r="S12" t="s">
         <v>547</v>
       </c>
@@ -9244,11 +9375,9 @@
       <c r="V12" t="s">
         <v>550</v>
       </c>
-      <c r="W12"/>
       <c r="X12" t="s">
         <v>551</v>
       </c>
-      <c r="Y12"/>
       <c r="Z12" t="s">
         <v>552</v>
       </c>
@@ -9267,7 +9396,6 @@
       <c r="AE12" t="s">
         <v>557</v>
       </c>
-      <c r="AF12"/>
       <c r="AG12" t="s">
         <v>558</v>
       </c>
@@ -9372,7 +9500,6 @@
       <c r="Q13" t="s">
         <v>589</v>
       </c>
-      <c r="R13"/>
       <c r="S13" t="s">
         <v>590</v>
       </c>
@@ -9385,11 +9512,9 @@
       <c r="V13" t="s">
         <v>593</v>
       </c>
-      <c r="W13"/>
       <c r="X13" t="s">
         <v>594</v>
       </c>
-      <c r="Y13"/>
       <c r="Z13" t="s">
         <v>595</v>
       </c>
@@ -9408,7 +9533,6 @@
       <c r="AE13" t="s">
         <v>599</v>
       </c>
-      <c r="AF13"/>
       <c r="AG13" t="s">
         <v>480</v>
       </c>
@@ -9448,7 +9572,6 @@
       <c r="AS13" t="s">
         <v>611</v>
       </c>
-      <c r="AT13"/>
       <c r="AU13" t="s">
         <v>612</v>
       </c>
@@ -9511,7 +9634,6 @@
       <c r="Q14" t="s">
         <v>631</v>
       </c>
-      <c r="R14"/>
       <c r="S14" t="s">
         <v>632</v>
       </c>
@@ -9524,11 +9646,9 @@
       <c r="V14" t="s">
         <v>635</v>
       </c>
-      <c r="W14"/>
       <c r="X14" t="s">
         <v>636</v>
       </c>
-      <c r="Y14"/>
       <c r="Z14" t="s">
         <v>637</v>
       </c>
@@ -9547,7 +9667,6 @@
       <c r="AE14" t="s">
         <v>642</v>
       </c>
-      <c r="AF14"/>
       <c r="AG14" t="s">
         <v>643</v>
       </c>
@@ -9587,7 +9706,6 @@
       <c r="AS14" t="s">
         <v>655</v>
       </c>
-      <c r="AT14"/>
       <c r="AU14" t="s">
         <v>656</v>
       </c>
@@ -9647,7 +9765,6 @@
       <c r="Q15" t="s">
         <v>673</v>
       </c>
-      <c r="R15"/>
       <c r="S15" t="s">
         <v>674</v>
       </c>
@@ -9660,11 +9777,9 @@
       <c r="V15" t="s">
         <v>677</v>
       </c>
-      <c r="W15"/>
       <c r="X15" t="s">
         <v>678</v>
       </c>
-      <c r="Y15"/>
       <c r="Z15" t="s">
         <v>679</v>
       </c>
@@ -9683,7 +9798,6 @@
       <c r="AE15" t="s">
         <v>684</v>
       </c>
-      <c r="AF15"/>
       <c r="AG15" t="s">
         <v>685</v>
       </c>
@@ -9717,11 +9831,9 @@
       <c r="AQ15" t="s">
         <v>693</v>
       </c>
-      <c r="AR15"/>
       <c r="AS15" t="s">
         <v>694</v>
       </c>
-      <c r="AT15"/>
       <c r="AU15" t="s">
         <v>695</v>
       </c>
@@ -9781,7 +9893,6 @@
       <c r="Q16" t="s">
         <v>713</v>
       </c>
-      <c r="R16"/>
       <c r="S16" t="s">
         <v>714</v>
       </c>
@@ -9794,11 +9905,9 @@
       <c r="V16" t="s">
         <v>717</v>
       </c>
-      <c r="W16"/>
       <c r="X16" t="s">
         <v>718</v>
       </c>
-      <c r="Y16"/>
       <c r="Z16" t="s">
         <v>719</v>
       </c>
@@ -9817,7 +9926,6 @@
       <c r="AE16" t="s">
         <v>724</v>
       </c>
-      <c r="AF16"/>
       <c r="AG16" t="s">
         <v>725</v>
       </c>
@@ -9851,11 +9959,9 @@
       <c r="AQ16" t="s">
         <v>733</v>
       </c>
-      <c r="AR16"/>
       <c r="AS16" t="s">
         <v>734</v>
       </c>
-      <c r="AT16"/>
       <c r="AU16" t="s">
         <v>735</v>
       </c>
@@ -9903,7 +10009,6 @@
       <c r="M17" t="s">
         <v>749</v>
       </c>
-      <c r="N17"/>
       <c r="O17" t="s">
         <v>750</v>
       </c>
@@ -9913,22 +10018,18 @@
       <c r="Q17" t="s">
         <v>752</v>
       </c>
-      <c r="R17"/>
       <c r="S17" t="s">
         <v>753</v>
       </c>
       <c r="T17" t="s">
         <v>754</v>
       </c>
-      <c r="U17"/>
       <c r="V17" t="s">
         <v>755</v>
       </c>
-      <c r="W17"/>
       <c r="X17" t="s">
         <v>756</v>
       </c>
-      <c r="Y17"/>
       <c r="Z17" t="s">
         <v>742</v>
       </c>
@@ -9947,7 +10048,6 @@
       <c r="AE17" t="s">
         <v>761</v>
       </c>
-      <c r="AF17"/>
       <c r="AG17" t="s">
         <v>762</v>
       </c>
@@ -9981,11 +10081,9 @@
       <c r="AQ17" t="s">
         <v>770</v>
       </c>
-      <c r="AR17"/>
       <c r="AS17" t="s">
         <v>771</v>
       </c>
-      <c r="AT17"/>
       <c r="AU17" t="s">
         <v>772</v>
       </c>
@@ -10033,7 +10131,6 @@
       <c r="M18" t="s">
         <v>785</v>
       </c>
-      <c r="N18"/>
       <c r="O18" t="s">
         <v>786</v>
       </c>
@@ -10043,20 +10140,15 @@
       <c r="Q18" t="s">
         <v>788</v>
       </c>
-      <c r="R18"/>
       <c r="S18" t="s">
         <v>789</v>
       </c>
       <c r="T18" t="s">
         <v>790</v>
       </c>
-      <c r="U18"/>
       <c r="V18" t="s">
         <v>791</v>
       </c>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
       <c r="Z18" t="s">
         <v>792</v>
       </c>
@@ -10105,18 +10197,15 @@
       <c r="AQ18" t="s">
         <v>804</v>
       </c>
-      <c r="AR18"/>
       <c r="AS18" t="s">
         <v>805</v>
       </c>
-      <c r="AT18"/>
       <c r="AU18" t="s">
         <v>806</v>
       </c>
       <c r="AV18" t="s">
         <v>807</v>
       </c>
-      <c r="AW18"/>
       <c r="AX18" t="s">
         <v>808</v>
       </c>
@@ -10155,7 +10244,6 @@
       <c r="M19" t="s">
         <v>819</v>
       </c>
-      <c r="N19"/>
       <c r="O19" t="s">
         <v>820</v>
       </c>
@@ -10165,20 +10253,15 @@
       <c r="Q19" t="s">
         <v>822</v>
       </c>
-      <c r="R19"/>
       <c r="S19" t="s">
         <v>823</v>
       </c>
       <c r="T19" t="s">
         <v>824</v>
       </c>
-      <c r="U19"/>
       <c r="V19" t="s">
         <v>825</v>
       </c>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
       <c r="Z19" t="s">
         <v>826</v>
       </c>
@@ -10194,8 +10277,6 @@
       <c r="AD19" t="s">
         <v>830</v>
       </c>
-      <c r="AE19"/>
-      <c r="AF19"/>
       <c r="AG19" t="s">
         <v>831</v>
       </c>
@@ -10229,18 +10310,15 @@
       <c r="AQ19" t="s">
         <v>841</v>
       </c>
-      <c r="AR19"/>
       <c r="AS19" t="s">
         <v>842</v>
       </c>
-      <c r="AT19"/>
       <c r="AU19" t="s">
         <v>843</v>
       </c>
       <c r="AV19" t="s">
         <v>415</v>
       </c>
-      <c r="AW19"/>
       <c r="AX19" t="s">
         <v>844</v>
       </c>
@@ -10279,28 +10357,21 @@
       <c r="M20" t="s">
         <v>854</v>
       </c>
-      <c r="N20"/>
       <c r="O20" t="s">
         <v>855</v>
       </c>
       <c r="P20" t="s">
         <v>856</v>
       </c>
-      <c r="Q20"/>
-      <c r="R20"/>
       <c r="S20" t="s">
         <v>857</v>
       </c>
       <c r="T20" t="s">
         <v>858</v>
       </c>
-      <c r="U20"/>
       <c r="V20" t="s">
         <v>859</v>
       </c>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
       <c r="Z20" t="s">
         <v>860</v>
       </c>
@@ -10316,8 +10387,6 @@
       <c r="AD20" t="s">
         <v>864</v>
       </c>
-      <c r="AE20"/>
-      <c r="AF20"/>
       <c r="AG20" t="s">
         <v>865</v>
       </c>
@@ -10351,18 +10420,15 @@
       <c r="AQ20" t="s">
         <v>875</v>
       </c>
-      <c r="AR20"/>
       <c r="AS20" t="s">
         <v>876</v>
       </c>
-      <c r="AT20"/>
       <c r="AU20" t="s">
         <v>877</v>
       </c>
       <c r="AV20" t="s">
         <v>878</v>
       </c>
-      <c r="AW20"/>
       <c r="AX20" t="s">
         <v>879</v>
       </c>
@@ -10401,28 +10467,21 @@
       <c r="M21" t="s">
         <v>890</v>
       </c>
-      <c r="N21"/>
       <c r="O21" t="s">
         <v>891</v>
       </c>
       <c r="P21" t="s">
         <v>892</v>
       </c>
-      <c r="Q21"/>
-      <c r="R21"/>
       <c r="S21" t="s">
         <v>893</v>
       </c>
       <c r="T21" t="s">
         <v>894</v>
       </c>
-      <c r="U21"/>
       <c r="V21" t="s">
         <v>895</v>
       </c>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
       <c r="Z21" t="s">
         <v>896</v>
       </c>
@@ -10435,9 +10494,6 @@
       <c r="AC21" t="s">
         <v>899</v>
       </c>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
       <c r="AG21" t="s">
         <v>900</v>
       </c>
@@ -10471,18 +10527,15 @@
       <c r="AQ21" t="s">
         <v>910</v>
       </c>
-      <c r="AR21"/>
       <c r="AS21" t="s">
         <v>911</v>
       </c>
-      <c r="AT21"/>
       <c r="AU21" t="s">
         <v>912</v>
       </c>
       <c r="AV21" t="s">
         <v>605</v>
       </c>
-      <c r="AW21"/>
       <c r="AX21" t="s">
         <v>913</v>
       </c>
@@ -10521,28 +10574,21 @@
       <c r="M22" t="s">
         <v>923</v>
       </c>
-      <c r="N22"/>
       <c r="O22" t="s">
         <v>924</v>
       </c>
       <c r="P22" t="s">
         <v>925</v>
       </c>
-      <c r="Q22"/>
-      <c r="R22"/>
       <c r="S22" t="s">
         <v>926</v>
       </c>
       <c r="T22" t="s">
         <v>927</v>
       </c>
-      <c r="U22"/>
       <c r="V22" t="s">
         <v>928</v>
       </c>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
       <c r="Z22" t="s">
         <v>929</v>
       </c>
@@ -10555,9 +10601,6 @@
       <c r="AC22" t="s">
         <v>931</v>
       </c>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
       <c r="AG22" t="s">
         <v>932</v>
       </c>
@@ -10591,18 +10634,15 @@
       <c r="AQ22" t="s">
         <v>942</v>
       </c>
-      <c r="AR22"/>
       <c r="AS22" t="s">
         <v>943</v>
       </c>
-      <c r="AT22"/>
       <c r="AU22" t="s">
         <v>944</v>
       </c>
       <c r="AV22" t="s">
         <v>945</v>
       </c>
-      <c r="AW22"/>
       <c r="AX22" t="s">
         <v>946</v>
       </c>
@@ -10641,28 +10681,21 @@
       <c r="M23" t="s">
         <v>956</v>
       </c>
-      <c r="N23"/>
       <c r="O23" t="s">
         <v>957</v>
       </c>
       <c r="P23" t="s">
         <v>958</v>
       </c>
-      <c r="Q23"/>
-      <c r="R23"/>
       <c r="S23" t="s">
         <v>871</v>
       </c>
       <c r="T23" t="s">
         <v>959</v>
       </c>
-      <c r="U23"/>
       <c r="V23" t="s">
         <v>960</v>
       </c>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
       <c r="Z23" t="s">
         <v>393</v>
       </c>
@@ -10675,9 +10708,6 @@
       <c r="AC23" t="s">
         <v>963</v>
       </c>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
       <c r="AG23" t="s">
         <v>964</v>
       </c>
@@ -10711,18 +10741,15 @@
       <c r="AQ23" t="s">
         <v>973</v>
       </c>
-      <c r="AR23"/>
       <c r="AS23" t="s">
         <v>974</v>
       </c>
-      <c r="AT23"/>
       <c r="AU23" t="s">
         <v>975</v>
       </c>
       <c r="AV23" t="s">
         <v>976</v>
       </c>
-      <c r="AW23"/>
       <c r="AX23" t="s">
         <v>507</v>
       </c>
@@ -10761,28 +10788,21 @@
       <c r="M24" t="s">
         <v>986</v>
       </c>
-      <c r="N24"/>
       <c r="O24" t="s">
         <v>987</v>
       </c>
       <c r="P24" t="s">
         <v>988</v>
       </c>
-      <c r="Q24"/>
-      <c r="R24"/>
       <c r="S24" t="s">
         <v>989</v>
       </c>
       <c r="T24" t="s">
         <v>990</v>
       </c>
-      <c r="U24"/>
       <c r="V24" t="s">
         <v>991</v>
       </c>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
       <c r="Z24" t="s">
         <v>992</v>
       </c>
@@ -10795,9 +10815,6 @@
       <c r="AC24" t="s">
         <v>995</v>
       </c>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
       <c r="AG24" t="s">
         <v>996</v>
       </c>
@@ -10831,18 +10848,15 @@
       <c r="AQ24" t="s">
         <v>1006</v>
       </c>
-      <c r="AR24"/>
       <c r="AS24" t="s">
         <v>1007</v>
       </c>
-      <c r="AT24"/>
       <c r="AU24" t="s">
         <v>1008</v>
       </c>
       <c r="AV24" t="s">
         <v>1009</v>
       </c>
-      <c r="AW24"/>
       <c r="AX24" t="s">
         <v>1010</v>
       </c>
@@ -10881,28 +10895,21 @@
       <c r="M25" t="s">
         <v>1021</v>
       </c>
-      <c r="N25"/>
       <c r="O25" t="s">
         <v>1022</v>
       </c>
       <c r="P25" t="s">
         <v>1023</v>
       </c>
-      <c r="Q25"/>
-      <c r="R25"/>
       <c r="S25" t="s">
         <v>1024</v>
       </c>
       <c r="T25" t="s">
         <v>1025</v>
       </c>
-      <c r="U25"/>
       <c r="V25" t="s">
         <v>1026</v>
       </c>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
       <c r="Z25" t="s">
         <v>563</v>
       </c>
@@ -10915,9 +10922,6 @@
       <c r="AC25" t="s">
         <v>1029</v>
       </c>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
       <c r="AG25" t="s">
         <v>1030</v>
       </c>
@@ -10927,7 +10931,6 @@
       <c r="AI25" t="s">
         <v>1032</v>
       </c>
-      <c r="AJ25"/>
       <c r="AK25" t="s">
         <v>1033</v>
       </c>
@@ -10949,18 +10952,15 @@
       <c r="AQ25" t="s">
         <v>1038</v>
       </c>
-      <c r="AR25"/>
       <c r="AS25" t="s">
         <v>1039</v>
       </c>
-      <c r="AT25"/>
       <c r="AU25" t="s">
         <v>1040</v>
       </c>
       <c r="AV25" t="s">
         <v>794</v>
       </c>
-      <c r="AW25"/>
       <c r="AX25" t="s">
         <v>1041</v>
       </c>
@@ -10993,28 +10993,21 @@
       <c r="M26" t="s">
         <v>409</v>
       </c>
-      <c r="N26"/>
       <c r="O26" t="s">
         <v>1050</v>
       </c>
       <c r="P26" t="s">
         <v>1051</v>
       </c>
-      <c r="Q26"/>
-      <c r="R26"/>
       <c r="S26" t="s">
         <v>1052</v>
       </c>
       <c r="T26" t="s">
         <v>1053</v>
       </c>
-      <c r="U26"/>
       <c r="V26" t="s">
         <v>1054</v>
       </c>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
       <c r="Z26" t="s">
         <v>1055</v>
       </c>
@@ -11027,17 +11020,12 @@
       <c r="AC26" t="s">
         <v>761</v>
       </c>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
       <c r="AG26" t="s">
         <v>1058</v>
       </c>
       <c r="AH26" t="s">
         <v>1059</v>
       </c>
-      <c r="AI26"/>
-      <c r="AJ26"/>
       <c r="AK26" t="s">
         <v>1060</v>
       </c>
@@ -11059,18 +11047,15 @@
       <c r="AQ26" t="s">
         <v>1066</v>
       </c>
-      <c r="AR26"/>
       <c r="AS26" t="s">
         <v>1067</v>
       </c>
-      <c r="AT26"/>
       <c r="AU26" t="s">
         <v>1068</v>
       </c>
       <c r="AV26" t="s">
         <v>1069</v>
       </c>
-      <c r="AW26"/>
       <c r="AX26" t="s">
         <v>1070</v>
       </c>
@@ -11103,26 +11088,18 @@
       <c r="M27" t="s">
         <v>1079</v>
       </c>
-      <c r="N27"/>
       <c r="O27" t="s">
         <v>1080</v>
       </c>
       <c r="P27" t="s">
         <v>1081</v>
       </c>
-      <c r="Q27"/>
-      <c r="R27"/>
       <c r="S27" t="s">
         <v>1082</v>
       </c>
       <c r="T27" t="s">
         <v>1083</v>
       </c>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
       <c r="Z27" t="s">
         <v>1084</v>
       </c>
@@ -11135,17 +11112,12 @@
       <c r="AC27" t="s">
         <v>1087</v>
       </c>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
       <c r="AG27" t="s">
         <v>1088</v>
       </c>
       <c r="AH27" t="s">
         <v>1089</v>
       </c>
-      <c r="AI27"/>
-      <c r="AJ27"/>
       <c r="AK27" t="s">
         <v>1090</v>
       </c>
@@ -11167,18 +11139,15 @@
       <c r="AQ27" t="s">
         <v>1095</v>
       </c>
-      <c r="AR27"/>
       <c r="AS27" t="s">
         <v>1096</v>
       </c>
-      <c r="AT27"/>
       <c r="AU27" t="s">
         <v>1097</v>
       </c>
       <c r="AV27" t="s">
         <v>1098</v>
       </c>
-      <c r="AW27"/>
       <c r="AX27" t="s">
         <v>1099</v>
       </c>
@@ -11211,26 +11180,18 @@
       <c r="M28" t="s">
         <v>1108</v>
       </c>
-      <c r="N28"/>
       <c r="O28" t="s">
         <v>1109</v>
       </c>
       <c r="P28" t="s">
         <v>1110</v>
       </c>
-      <c r="Q28"/>
-      <c r="R28"/>
       <c r="S28" t="s">
         <v>1111</v>
       </c>
       <c r="T28" t="s">
         <v>1112</v>
       </c>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
       <c r="Z28" t="s">
         <v>202</v>
       </c>
@@ -11243,15 +11204,9 @@
       <c r="AC28" t="s">
         <v>1115</v>
       </c>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
       <c r="AG28" t="s">
         <v>1116</v>
       </c>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
       <c r="AK28" t="s">
         <v>1117</v>
       </c>
@@ -11273,18 +11228,15 @@
       <c r="AQ28" t="s">
         <v>1122</v>
       </c>
-      <c r="AR28"/>
       <c r="AS28" t="s">
         <v>1123</v>
       </c>
-      <c r="AT28"/>
       <c r="AU28" t="s">
         <v>1124</v>
       </c>
       <c r="AV28" t="s">
         <v>1125</v>
       </c>
-      <c r="AW28"/>
       <c r="AX28" t="s">
         <v>1126</v>
       </c>
@@ -11317,26 +11269,18 @@
       <c r="M29" t="s">
         <v>1135</v>
       </c>
-      <c r="N29"/>
       <c r="O29" t="s">
         <v>1136</v>
       </c>
       <c r="P29" t="s">
         <v>1137</v>
       </c>
-      <c r="Q29"/>
-      <c r="R29"/>
       <c r="S29" t="s">
         <v>1138</v>
       </c>
       <c r="T29" t="s">
         <v>1139</v>
       </c>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
       <c r="Z29" t="s">
         <v>1140</v>
       </c>
@@ -11349,15 +11293,9 @@
       <c r="AC29" t="s">
         <v>1143</v>
       </c>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
       <c r="AG29" t="s">
         <v>1144</v>
       </c>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
       <c r="AK29" t="s">
         <v>468</v>
       </c>
@@ -11379,18 +11317,15 @@
       <c r="AQ29" t="s">
         <v>1149</v>
       </c>
-      <c r="AR29"/>
       <c r="AS29" t="s">
         <v>1150</v>
       </c>
-      <c r="AT29"/>
       <c r="AU29" t="s">
         <v>1151</v>
       </c>
       <c r="AV29" t="s">
         <v>1152</v>
       </c>
-      <c r="AW29"/>
       <c r="AX29" t="s">
         <v>1153</v>
       </c>
@@ -11423,26 +11358,18 @@
       <c r="M30" t="s">
         <v>1162</v>
       </c>
-      <c r="N30"/>
       <c r="O30" t="s">
         <v>677</v>
       </c>
       <c r="P30" t="s">
         <v>1163</v>
       </c>
-      <c r="Q30"/>
-      <c r="R30"/>
       <c r="S30" t="s">
         <v>1164</v>
       </c>
       <c r="T30" t="s">
         <v>1165</v>
       </c>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
       <c r="Z30" t="s">
         <v>1166</v>
       </c>
@@ -11455,15 +11382,9 @@
       <c r="AC30" t="s">
         <v>1169</v>
       </c>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
       <c r="AG30" t="s">
         <v>1170</v>
       </c>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
       <c r="AK30" t="s">
         <v>1171</v>
       </c>
@@ -11482,19 +11403,15 @@
       <c r="AP30" t="s">
         <v>1175</v>
       </c>
-      <c r="AQ30"/>
-      <c r="AR30"/>
       <c r="AS30" t="s">
         <v>1176</v>
       </c>
-      <c r="AT30"/>
       <c r="AU30" t="s">
         <v>1177</v>
       </c>
       <c r="AV30" t="s">
         <v>1178</v>
       </c>
-      <c r="AW30"/>
       <c r="AX30" t="s">
         <v>1179</v>
       </c>
@@ -11527,24 +11444,15 @@
       <c r="M31" t="s">
         <v>1187</v>
       </c>
-      <c r="N31"/>
       <c r="O31" t="s">
         <v>1188</v>
       </c>
       <c r="P31" t="s">
         <v>1189</v>
       </c>
-      <c r="Q31"/>
-      <c r="R31"/>
       <c r="S31" t="s">
         <v>1190</v>
       </c>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
       <c r="Z31" t="s">
         <v>1191</v>
       </c>
@@ -11557,15 +11465,9 @@
       <c r="AC31" t="s">
         <v>1194</v>
       </c>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
       <c r="AG31" t="s">
         <v>1195</v>
       </c>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
       <c r="AK31" t="s">
         <v>1196</v>
       </c>
@@ -11584,19 +11486,15 @@
       <c r="AP31" t="s">
         <v>1201</v>
       </c>
-      <c r="AQ31"/>
-      <c r="AR31"/>
       <c r="AS31" t="s">
         <v>1202</v>
       </c>
-      <c r="AT31"/>
       <c r="AU31" t="s">
         <v>1203</v>
       </c>
       <c r="AV31" t="s">
         <v>909</v>
       </c>
-      <c r="AW31"/>
       <c r="AX31" t="s">
         <v>1204</v>
       </c>
@@ -11629,24 +11527,15 @@
       <c r="M32" t="s">
         <v>1213</v>
       </c>
-      <c r="N32"/>
       <c r="O32" t="s">
         <v>1214</v>
       </c>
       <c r="P32" t="s">
         <v>1215</v>
       </c>
-      <c r="Q32"/>
-      <c r="R32"/>
       <c r="S32" t="s">
         <v>1216</v>
       </c>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
       <c r="Z32" t="s">
         <v>1217</v>
       </c>
@@ -11659,15 +11548,9 @@
       <c r="AC32" t="s">
         <v>1220</v>
       </c>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
       <c r="AG32" t="s">
         <v>1221</v>
       </c>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
       <c r="AK32" t="s">
         <v>1222</v>
       </c>
@@ -11686,19 +11569,15 @@
       <c r="AP32" t="s">
         <v>1185</v>
       </c>
-      <c r="AQ32"/>
-      <c r="AR32"/>
       <c r="AS32" t="s">
         <v>1227</v>
       </c>
-      <c r="AT32"/>
       <c r="AU32" t="s">
         <v>1228</v>
       </c>
       <c r="AV32" t="s">
         <v>1229</v>
       </c>
-      <c r="AW32"/>
       <c r="AX32" t="s">
         <v>1230</v>
       </c>
@@ -11731,24 +11610,15 @@
       <c r="M33" t="s">
         <v>1238</v>
       </c>
-      <c r="N33"/>
       <c r="O33" t="s">
         <v>1239</v>
       </c>
       <c r="P33" t="s">
         <v>1240</v>
       </c>
-      <c r="Q33"/>
-      <c r="R33"/>
       <c r="S33" t="s">
         <v>1198</v>
       </c>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
       <c r="Z33" t="s">
         <v>1241</v>
       </c>
@@ -11761,15 +11631,9 @@
       <c r="AC33" t="s">
         <v>1244</v>
       </c>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
       <c r="AG33" t="s">
         <v>1245</v>
       </c>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
       <c r="AK33" t="s">
         <v>1246</v>
       </c>
@@ -11788,19 +11652,15 @@
       <c r="AP33" t="s">
         <v>1251</v>
       </c>
-      <c r="AQ33"/>
-      <c r="AR33"/>
       <c r="AS33" t="s">
         <v>1252</v>
       </c>
-      <c r="AT33"/>
       <c r="AU33" t="s">
         <v>1253</v>
       </c>
       <c r="AV33" t="s">
         <v>601</v>
       </c>
-      <c r="AW33"/>
       <c r="AX33" t="s">
         <v>1254</v>
       </c>
@@ -11830,24 +11690,15 @@
       <c r="M34" t="s">
         <v>1262</v>
       </c>
-      <c r="N34"/>
       <c r="O34" t="s">
         <v>1263</v>
       </c>
       <c r="P34" t="s">
         <v>1264</v>
       </c>
-      <c r="Q34"/>
-      <c r="R34"/>
       <c r="S34" t="s">
         <v>1265</v>
       </c>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
       <c r="Z34" t="s">
         <v>1266</v>
       </c>
@@ -11860,15 +11711,9 @@
       <c r="AC34" t="s">
         <v>1269</v>
       </c>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
       <c r="AG34" t="s">
         <v>1270</v>
       </c>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
       <c r="AK34" t="s">
         <v>1271</v>
       </c>
@@ -11887,19 +11732,15 @@
       <c r="AP34" t="s">
         <v>1196</v>
       </c>
-      <c r="AQ34"/>
-      <c r="AR34"/>
       <c r="AS34" t="s">
         <v>1275</v>
       </c>
-      <c r="AT34"/>
       <c r="AU34" t="s">
         <v>1276</v>
       </c>
       <c r="AV34" t="s">
         <v>1277</v>
       </c>
-      <c r="AW34"/>
       <c r="AX34" t="s">
         <v>1278</v>
       </c>
@@ -11929,22 +11770,12 @@
       <c r="M35" t="s">
         <v>1286</v>
       </c>
-      <c r="N35"/>
       <c r="O35" t="s">
         <v>1287</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
       <c r="S35" t="s">
         <v>1288</v>
       </c>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
       <c r="Z35" t="s">
         <v>1289</v>
       </c>
@@ -11957,15 +11788,9 @@
       <c r="AC35" t="s">
         <v>1292</v>
       </c>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
       <c r="AG35" t="s">
         <v>1293</v>
       </c>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
       <c r="AK35" t="s">
         <v>1294</v>
       </c>
@@ -11984,19 +11809,15 @@
       <c r="AP35" t="s">
         <v>1299</v>
       </c>
-      <c r="AQ35"/>
-      <c r="AR35"/>
       <c r="AS35" t="s">
         <v>1300</v>
       </c>
-      <c r="AT35"/>
       <c r="AU35" t="s">
         <v>1301</v>
       </c>
       <c r="AV35" t="s">
         <v>1302</v>
       </c>
-      <c r="AW35"/>
       <c r="AX35" t="s">
         <v>1303</v>
       </c>
@@ -12026,22 +11847,12 @@
       <c r="M36" t="s">
         <v>1311</v>
       </c>
-      <c r="N36"/>
       <c r="O36" t="s">
         <v>1312</v>
       </c>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
       <c r="S36" t="s">
         <v>1313</v>
       </c>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
       <c r="Z36" t="s">
         <v>1314</v>
       </c>
@@ -12054,15 +11865,9 @@
       <c r="AC36" t="s">
         <v>1317</v>
       </c>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
       <c r="AG36" t="s">
         <v>1318</v>
       </c>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
       <c r="AK36" t="s">
         <v>1319</v>
       </c>
@@ -12081,19 +11886,15 @@
       <c r="AP36" t="s">
         <v>1324</v>
       </c>
-      <c r="AQ36"/>
-      <c r="AR36"/>
       <c r="AS36" t="s">
         <v>1325</v>
       </c>
-      <c r="AT36"/>
       <c r="AU36" t="s">
         <v>1326</v>
       </c>
       <c r="AV36" t="s">
         <v>1327</v>
       </c>
-      <c r="AW36"/>
       <c r="AX36" t="s">
         <v>1328</v>
       </c>
@@ -12123,22 +11924,12 @@
       <c r="M37" t="s">
         <v>1335</v>
       </c>
-      <c r="N37"/>
       <c r="O37" t="s">
         <v>1336</v>
       </c>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
       <c r="S37" t="s">
         <v>1337</v>
       </c>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
       <c r="Z37" t="s">
         <v>1338</v>
       </c>
@@ -12151,15 +11942,9 @@
       <c r="AC37" t="s">
         <v>1341</v>
       </c>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
       <c r="AG37" t="s">
         <v>1342</v>
       </c>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
       <c r="AK37" t="s">
         <v>1343</v>
       </c>
@@ -12178,17 +11963,12 @@
       <c r="AP37" t="s">
         <v>1348</v>
       </c>
-      <c r="AQ37"/>
-      <c r="AR37"/>
       <c r="AS37" t="s">
         <v>1349</v>
       </c>
-      <c r="AT37"/>
-      <c r="AU37"/>
       <c r="AV37" t="s">
         <v>1350</v>
       </c>
-      <c r="AW37"/>
       <c r="AX37" t="s">
         <v>1351</v>
       </c>
@@ -12212,26 +11992,15 @@
       <c r="K38" t="s">
         <v>1357</v>
       </c>
-      <c r="L38"/>
       <c r="M38" t="s">
         <v>1358</v>
       </c>
-      <c r="N38"/>
       <c r="O38" t="s">
         <v>1359</v>
       </c>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
       <c r="S38" t="s">
         <v>1360</v>
       </c>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
       <c r="Z38" t="s">
         <v>52</v>
       </c>
@@ -12244,15 +12013,9 @@
       <c r="AC38" t="s">
         <v>1363</v>
       </c>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
       <c r="AG38" t="s">
         <v>1364</v>
       </c>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
       <c r="AK38" t="s">
         <v>1365</v>
       </c>
@@ -12271,17 +12034,12 @@
       <c r="AP38" t="s">
         <v>1083</v>
       </c>
-      <c r="AQ38"/>
-      <c r="AR38"/>
       <c r="AS38" t="s">
         <v>1370</v>
       </c>
-      <c r="AT38"/>
-      <c r="AU38"/>
       <c r="AV38" t="s">
         <v>1371</v>
       </c>
-      <c r="AW38"/>
       <c r="AX38" t="s">
         <v>1372</v>
       </c>
@@ -12299,30 +12057,18 @@
       <c r="I39" t="s">
         <v>1376</v>
       </c>
-      <c r="J39"/>
       <c r="K39" t="s">
         <v>1377</v>
       </c>
-      <c r="L39"/>
       <c r="M39" t="s">
         <v>1378</v>
       </c>
-      <c r="N39"/>
       <c r="O39" t="s">
         <v>1379</v>
       </c>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
       <c r="S39" t="s">
         <v>1380</v>
       </c>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
       <c r="Z39" t="s">
         <v>1381</v>
       </c>
@@ -12335,15 +12081,9 @@
       <c r="AC39" t="s">
         <v>1384</v>
       </c>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
       <c r="AG39" t="s">
         <v>1385</v>
       </c>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
       <c r="AK39" t="s">
         <v>1386</v>
       </c>
@@ -12362,17 +12102,12 @@
       <c r="AP39" t="s">
         <v>1391</v>
       </c>
-      <c r="AQ39"/>
-      <c r="AR39"/>
       <c r="AS39" t="s">
         <v>1392</v>
       </c>
-      <c r="AT39"/>
-      <c r="AU39"/>
       <c r="AV39" t="s">
         <v>1393</v>
       </c>
-      <c r="AW39"/>
       <c r="AX39" t="s">
         <v>1394</v>
       </c>
@@ -12390,28 +12125,15 @@
       <c r="I40" t="s">
         <v>1398</v>
       </c>
-      <c r="J40"/>
       <c r="K40" t="s">
         <v>1399</v>
       </c>
-      <c r="L40"/>
       <c r="M40" t="s">
         <v>1400</v>
       </c>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
       <c r="S40" t="s">
         <v>1401</v>
       </c>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
       <c r="Z40" t="s">
         <v>1402</v>
       </c>
@@ -12424,15 +12146,9 @@
       <c r="AC40" t="s">
         <v>1405</v>
       </c>
-      <c r="AD40"/>
-      <c r="AE40"/>
-      <c r="AF40"/>
       <c r="AG40" t="s">
         <v>1022</v>
       </c>
-      <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40"/>
       <c r="AK40" t="s">
         <v>1406</v>
       </c>
@@ -12451,15 +12167,9 @@
       <c r="AP40" t="s">
         <v>1411</v>
       </c>
-      <c r="AQ40"/>
-      <c r="AR40"/>
-      <c r="AS40"/>
-      <c r="AT40"/>
-      <c r="AU40"/>
       <c r="AV40" t="s">
         <v>1412</v>
       </c>
-      <c r="AW40"/>
       <c r="AX40" t="s">
         <v>1413</v>
       </c>
@@ -12477,28 +12187,15 @@
       <c r="I41" t="s">
         <v>1417</v>
       </c>
-      <c r="J41"/>
       <c r="K41" t="s">
         <v>1418</v>
       </c>
-      <c r="L41"/>
       <c r="M41" t="s">
         <v>1419</v>
       </c>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
       <c r="S41" t="s">
         <v>1420</v>
       </c>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
       <c r="Z41" t="s">
         <v>1421</v>
       </c>
@@ -12511,15 +12208,9 @@
       <c r="AC41" t="s">
         <v>1423</v>
       </c>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
       <c r="AG41" t="s">
         <v>1424</v>
       </c>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
       <c r="AK41" t="s">
         <v>1425</v>
       </c>
@@ -12538,15 +12229,9 @@
       <c r="AP41" t="s">
         <v>1430</v>
       </c>
-      <c r="AQ41"/>
-      <c r="AR41"/>
-      <c r="AS41"/>
-      <c r="AT41"/>
-      <c r="AU41"/>
       <c r="AV41" t="s">
         <v>1431</v>
       </c>
-      <c r="AW41"/>
       <c r="AX41" t="s">
         <v>1432</v>
       </c>
@@ -12564,47 +12249,27 @@
       <c r="I42" t="s">
         <v>736</v>
       </c>
-      <c r="J42"/>
       <c r="K42" t="s">
         <v>1436</v>
       </c>
-      <c r="L42"/>
       <c r="M42" t="s">
         <v>1437</v>
       </c>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
       <c r="S42" t="s">
         <v>1438</v>
       </c>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
       <c r="Z42" t="s">
         <v>1439</v>
       </c>
-      <c r="AA42"/>
       <c r="AB42" t="s">
         <v>1440</v>
       </c>
       <c r="AC42" t="s">
         <v>1441</v>
       </c>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AF42"/>
       <c r="AG42" t="s">
         <v>1442</v>
       </c>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42"/>
       <c r="AK42" t="s">
         <v>1443</v>
       </c>
@@ -12623,15 +12288,9 @@
       <c r="AP42" t="s">
         <v>1446</v>
       </c>
-      <c r="AQ42"/>
-      <c r="AR42"/>
-      <c r="AS42"/>
-      <c r="AT42"/>
-      <c r="AU42"/>
       <c r="AV42" t="s">
         <v>1447</v>
       </c>
-      <c r="AW42"/>
       <c r="AX42" t="s">
         <v>1448</v>
       </c>
@@ -12649,45 +12308,24 @@
       <c r="I43" t="s">
         <v>1452</v>
       </c>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
       <c r="M43" t="s">
         <v>1453</v>
       </c>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
       <c r="S43" t="s">
         <v>1454</v>
       </c>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
       <c r="Z43" t="s">
         <v>1455</v>
       </c>
-      <c r="AA43"/>
       <c r="AB43" t="s">
         <v>1456</v>
       </c>
       <c r="AC43" t="s">
         <v>1457</v>
       </c>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AF43"/>
       <c r="AG43" t="s">
         <v>1458</v>
       </c>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
       <c r="AK43" t="s">
         <v>1459</v>
       </c>
@@ -12706,15 +12344,9 @@
       <c r="AP43" t="s">
         <v>1426</v>
       </c>
-      <c r="AQ43"/>
-      <c r="AR43"/>
-      <c r="AS43"/>
-      <c r="AT43"/>
-      <c r="AU43"/>
       <c r="AV43" t="s">
         <v>1464</v>
       </c>
-      <c r="AW43"/>
       <c r="AX43" t="s">
         <v>1465</v>
       </c>
@@ -12732,45 +12364,24 @@
       <c r="I44" t="s">
         <v>1469</v>
       </c>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
       <c r="M44" t="s">
         <v>1470</v>
       </c>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
       <c r="S44" t="s">
         <v>1471</v>
       </c>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
       <c r="Z44" t="s">
         <v>1472</v>
       </c>
-      <c r="AA44"/>
       <c r="AB44" t="s">
         <v>1473</v>
       </c>
       <c r="AC44" t="s">
         <v>1474</v>
       </c>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
       <c r="AG44" t="s">
         <v>1475</v>
       </c>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
       <c r="AK44" t="s">
         <v>1476</v>
       </c>
@@ -12789,15 +12400,9 @@
       <c r="AP44" t="s">
         <v>1481</v>
       </c>
-      <c r="AQ44"/>
-      <c r="AR44"/>
-      <c r="AS44"/>
-      <c r="AT44"/>
-      <c r="AU44"/>
       <c r="AV44" t="s">
         <v>1482</v>
       </c>
-      <c r="AW44"/>
       <c r="AX44" t="s">
         <v>1483</v>
       </c>
@@ -12815,43 +12420,21 @@
       <c r="I45" t="s">
         <v>1487</v>
       </c>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
       <c r="M45" t="s">
         <v>1488</v>
       </c>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
       <c r="S45" t="s">
         <v>1489</v>
       </c>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
       <c r="Z45" t="s">
         <v>1490</v>
       </c>
-      <c r="AA45"/>
       <c r="AB45" t="s">
         <v>1491</v>
       </c>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
       <c r="AG45" t="s">
         <v>1492</v>
       </c>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
       <c r="AK45" t="s">
         <v>1493</v>
       </c>
@@ -12870,15 +12453,9 @@
       <c r="AP45" t="s">
         <v>1497</v>
       </c>
-      <c r="AQ45"/>
-      <c r="AR45"/>
-      <c r="AS45"/>
-      <c r="AT45"/>
-      <c r="AU45"/>
       <c r="AV45" t="s">
         <v>1498</v>
       </c>
-      <c r="AW45"/>
       <c r="AX45" t="s">
         <v>1499</v>
       </c>
@@ -12896,47 +12473,24 @@
       <c r="I46" t="s">
         <v>1503</v>
       </c>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
       <c r="M46" t="s">
         <v>1504</v>
       </c>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
       <c r="S46" t="s">
         <v>1505</v>
       </c>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
       <c r="Z46" t="s">
         <v>1506</v>
       </c>
-      <c r="AA46"/>
       <c r="AB46" t="s">
         <v>1507</v>
       </c>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
       <c r="AG46" t="s">
         <v>1508</v>
       </c>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
       <c r="AK46" t="s">
         <v>1509</v>
       </c>
-      <c r="AL46"/>
       <c r="AM46" t="s">
         <v>1510</v>
       </c>
@@ -12946,15 +12500,9 @@
       <c r="AP46" t="s">
         <v>1512</v>
       </c>
-      <c r="AQ46"/>
-      <c r="AR46"/>
-      <c r="AS46"/>
-      <c r="AT46"/>
-      <c r="AU46"/>
       <c r="AV46" t="s">
         <v>1513</v>
       </c>
-      <c r="AW46"/>
       <c r="AX46" t="s">
         <v>1514</v>
       </c>
@@ -12972,66 +12520,36 @@
       <c r="I47" t="s">
         <v>1518</v>
       </c>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
       <c r="M47" t="s">
         <v>1519</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
       <c r="S47" t="s">
         <v>1520</v>
       </c>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
       <c r="Z47" t="s">
         <v>1521</v>
       </c>
-      <c r="AA47"/>
       <c r="AB47" t="s">
         <v>1522</v>
       </c>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
       <c r="AG47" t="s">
         <v>1523</v>
       </c>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
       <c r="AK47" t="s">
         <v>1524</v>
       </c>
-      <c r="AL47"/>
       <c r="AM47" t="s">
         <v>650</v>
       </c>
       <c r="AN47" t="s">
         <v>1525</v>
       </c>
-      <c r="AO47"/>
       <c r="AP47" t="s">
         <v>1404</v>
       </c>
-      <c r="AQ47"/>
-      <c r="AR47"/>
-      <c r="AS47"/>
-      <c r="AT47"/>
-      <c r="AU47"/>
       <c r="AV47" t="s">
         <v>1526</v>
       </c>
-      <c r="AW47"/>
       <c r="AX47" t="s">
         <v>1527</v>
       </c>
@@ -13049,62 +12567,33 @@
       <c r="I48" t="s">
         <v>1531</v>
       </c>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
       <c r="M48" t="s">
         <v>1532</v>
       </c>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
       <c r="S48" t="s">
         <v>1533</v>
       </c>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
       <c r="Z48" t="s">
         <v>1534</v>
       </c>
-      <c r="AA48"/>
       <c r="AB48" t="s">
         <v>1535</v>
       </c>
-      <c r="AC48"/>
-      <c r="AD48"/>
-      <c r="AE48"/>
-      <c r="AF48"/>
       <c r="AG48" t="s">
         <v>1536</v>
       </c>
-      <c r="AH48"/>
-      <c r="AI48"/>
-      <c r="AJ48"/>
       <c r="AK48" t="s">
         <v>1537</v>
       </c>
-      <c r="AL48"/>
       <c r="AM48" t="s">
         <v>1538</v>
       </c>
       <c r="AN48" t="s">
         <v>1539</v>
       </c>
-      <c r="AO48"/>
       <c r="AP48" t="s">
         <v>1422</v>
       </c>
-      <c r="AQ48"/>
-      <c r="AR48"/>
-      <c r="AS48"/>
-      <c r="AT48"/>
-      <c r="AU48"/>
       <c r="AV48" t="s">
         <v>1540</v>
       </c>
@@ -13122,62 +12611,33 @@
       <c r="I49" t="s">
         <v>1544</v>
       </c>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
       <c r="M49" t="s">
         <v>1545</v>
       </c>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
       <c r="S49" t="s">
         <v>1546</v>
       </c>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
       <c r="Z49" t="s">
         <v>1547</v>
       </c>
-      <c r="AA49"/>
       <c r="AB49" t="s">
         <v>1548</v>
       </c>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
       <c r="AG49" t="s">
         <v>1549</v>
       </c>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
       <c r="AK49" t="s">
         <v>1550</v>
       </c>
-      <c r="AL49"/>
       <c r="AM49" t="s">
         <v>1551</v>
       </c>
       <c r="AN49" t="s">
         <v>1552</v>
       </c>
-      <c r="AO49"/>
       <c r="AP49" t="s">
         <v>1553</v>
       </c>
-      <c r="AQ49"/>
-      <c r="AR49"/>
-      <c r="AS49"/>
-      <c r="AT49"/>
-      <c r="AU49"/>
       <c r="AV49" t="s">
         <v>1554</v>
       </c>
@@ -13195,62 +12655,33 @@
       <c r="I50" t="s">
         <v>1558</v>
       </c>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
       <c r="M50" t="s">
         <v>1559</v>
       </c>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
       <c r="S50" t="s">
         <v>1512</v>
       </c>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
       <c r="Z50" t="s">
         <v>1560</v>
       </c>
-      <c r="AA50"/>
       <c r="AB50" t="s">
         <v>1561</v>
       </c>
-      <c r="AC50"/>
-      <c r="AD50"/>
-      <c r="AE50"/>
-      <c r="AF50"/>
       <c r="AG50" t="s">
         <v>1562</v>
       </c>
-      <c r="AH50"/>
-      <c r="AI50"/>
-      <c r="AJ50"/>
       <c r="AK50" t="s">
         <v>1563</v>
       </c>
-      <c r="AL50"/>
       <c r="AM50" t="s">
         <v>1564</v>
       </c>
       <c r="AN50" t="s">
         <v>1565</v>
       </c>
-      <c r="AO50"/>
       <c r="AP50" t="s">
         <v>1566</v>
       </c>
-      <c r="AQ50"/>
-      <c r="AR50"/>
-      <c r="AS50"/>
-      <c r="AT50"/>
-      <c r="AU50"/>
       <c r="AV50" t="s">
         <v>463</v>
       </c>
@@ -13268,62 +12699,33 @@
       <c r="I51" t="s">
         <v>1570</v>
       </c>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
       <c r="M51" t="s">
         <v>1571</v>
       </c>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
       <c r="S51" t="s">
         <v>1572</v>
       </c>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
       <c r="Z51" t="s">
         <v>1573</v>
       </c>
-      <c r="AA51"/>
       <c r="AB51" t="s">
         <v>1574</v>
       </c>
-      <c r="AC51"/>
-      <c r="AD51"/>
-      <c r="AE51"/>
-      <c r="AF51"/>
       <c r="AG51" t="s">
         <v>1575</v>
       </c>
-      <c r="AH51"/>
-      <c r="AI51"/>
-      <c r="AJ51"/>
       <c r="AK51" t="s">
         <v>1576</v>
       </c>
-      <c r="AL51"/>
       <c r="AM51" t="s">
         <v>1577</v>
       </c>
       <c r="AN51" t="s">
         <v>1578</v>
       </c>
-      <c r="AO51"/>
       <c r="AP51" t="s">
         <v>1579</v>
       </c>
-      <c r="AQ51"/>
-      <c r="AR51"/>
-      <c r="AS51"/>
-      <c r="AT51"/>
-      <c r="AU51"/>
       <c r="AV51" t="s">
         <v>508</v>
       </c>
@@ -13341,62 +12743,33 @@
       <c r="I52" t="s">
         <v>1583</v>
       </c>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
       <c r="M52" t="s">
         <v>1584</v>
       </c>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
       <c r="S52" t="s">
         <v>1585</v>
       </c>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
       <c r="Z52" t="s">
         <v>1586</v>
       </c>
-      <c r="AA52"/>
       <c r="AB52" t="s">
         <v>1587</v>
       </c>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
       <c r="AG52" t="s">
         <v>422</v>
       </c>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
       <c r="AK52" t="s">
         <v>1588</v>
       </c>
-      <c r="AL52"/>
       <c r="AM52" t="s">
         <v>1589</v>
       </c>
       <c r="AN52" t="s">
         <v>1590</v>
       </c>
-      <c r="AO52"/>
       <c r="AP52" t="s">
         <v>1507</v>
       </c>
-      <c r="AQ52"/>
-      <c r="AR52"/>
-      <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52"/>
       <c r="AV52" t="s">
         <v>1591</v>
       </c>
@@ -13414,62 +12787,33 @@
       <c r="I53" t="s">
         <v>1595</v>
       </c>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
       <c r="M53" t="s">
         <v>1596</v>
       </c>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
       <c r="S53" t="s">
         <v>1597</v>
       </c>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
       <c r="Z53" t="s">
         <v>1598</v>
       </c>
-      <c r="AA53"/>
       <c r="AB53" t="s">
         <v>1599</v>
       </c>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53"/>
       <c r="AG53" t="s">
         <v>1600</v>
       </c>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
       <c r="AK53" t="s">
         <v>830</v>
       </c>
-      <c r="AL53"/>
       <c r="AM53" t="s">
         <v>1601</v>
       </c>
       <c r="AN53" t="s">
         <v>1602</v>
       </c>
-      <c r="AO53"/>
       <c r="AP53" t="s">
         <v>1535</v>
       </c>
-      <c r="AQ53"/>
-      <c r="AR53"/>
-      <c r="AS53"/>
-      <c r="AT53"/>
-      <c r="AU53"/>
       <c r="AV53" t="s">
         <v>1603</v>
       </c>
@@ -13487,62 +12831,33 @@
       <c r="I54" t="s">
         <v>1606</v>
       </c>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
       <c r="M54" t="s">
         <v>1607</v>
       </c>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
       <c r="S54" t="s">
         <v>1608</v>
       </c>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
       <c r="Z54" t="s">
         <v>1609</v>
       </c>
-      <c r="AA54"/>
       <c r="AB54" t="s">
         <v>1610</v>
       </c>
-      <c r="AC54"/>
-      <c r="AD54"/>
-      <c r="AE54"/>
-      <c r="AF54"/>
       <c r="AG54" t="s">
         <v>1611</v>
       </c>
-      <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54"/>
       <c r="AK54" t="s">
         <v>1117</v>
       </c>
-      <c r="AL54"/>
       <c r="AM54" t="s">
         <v>1428</v>
       </c>
       <c r="AN54" t="s">
         <v>1612</v>
       </c>
-      <c r="AO54"/>
       <c r="AP54" t="s">
         <v>1613</v>
       </c>
-      <c r="AQ54"/>
-      <c r="AR54"/>
-      <c r="AS54"/>
-      <c r="AT54"/>
-      <c r="AU54"/>
       <c r="AV54" t="s">
         <v>1614</v>
       </c>
@@ -13560,62 +12875,33 @@
       <c r="I55" t="s">
         <v>1617</v>
       </c>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
       <c r="M55" t="s">
         <v>1618</v>
       </c>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
       <c r="S55" t="s">
         <v>1619</v>
       </c>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
       <c r="Z55" t="s">
         <v>345</v>
       </c>
-      <c r="AA55"/>
       <c r="AB55" t="s">
         <v>1620</v>
       </c>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-      <c r="AF55"/>
       <c r="AG55" t="s">
         <v>1621</v>
       </c>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
       <c r="AK55" t="s">
         <v>1622</v>
       </c>
-      <c r="AL55"/>
       <c r="AM55" t="s">
         <v>1623</v>
       </c>
       <c r="AN55" t="s">
         <v>1624</v>
       </c>
-      <c r="AO55"/>
       <c r="AP55" t="s">
         <v>913</v>
       </c>
-      <c r="AQ55"/>
-      <c r="AR55"/>
-      <c r="AS55"/>
-      <c r="AT55"/>
-      <c r="AU55"/>
       <c r="AV55" t="s">
         <v>1625</v>
       </c>
@@ -13633,52 +12919,27 @@
       <c r="I56" t="s">
         <v>1628</v>
       </c>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
       <c r="M56" t="s">
         <v>1629</v>
       </c>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
       <c r="S56" t="s">
         <v>1630</v>
       </c>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
       <c r="Z56" t="s">
         <v>1101</v>
       </c>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-      <c r="AE56"/>
-      <c r="AF56"/>
       <c r="AG56" t="s">
         <v>1631</v>
       </c>
-      <c r="AH56"/>
-      <c r="AI56"/>
-      <c r="AJ56"/>
       <c r="AK56" t="s">
         <v>1632</v>
       </c>
-      <c r="AL56"/>
       <c r="AM56" t="s">
         <v>1633</v>
       </c>
       <c r="AN56" t="s">
         <v>1634</v>
       </c>
-      <c r="AO56"/>
       <c r="AP56" t="s">
         <v>1635</v>
       </c>
@@ -13696,52 +12957,27 @@
       <c r="I57" t="s">
         <v>1639</v>
       </c>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
       <c r="M57" t="s">
         <v>1640</v>
       </c>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
       <c r="S57" t="s">
         <v>1641</v>
       </c>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
       <c r="Z57" t="s">
         <v>1642</v>
       </c>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
-      <c r="AF57"/>
       <c r="AG57" t="s">
         <v>1643</v>
       </c>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
       <c r="AK57" t="s">
         <v>1644</v>
       </c>
-      <c r="AL57"/>
       <c r="AM57" t="s">
         <v>1645</v>
       </c>
       <c r="AN57" t="s">
         <v>1646</v>
       </c>
-      <c r="AO57"/>
       <c r="AP57" t="s">
         <v>1647</v>
       </c>
@@ -13759,50 +12995,24 @@
       <c r="I58" t="s">
         <v>1651</v>
       </c>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
       <c r="M58" t="s">
         <v>1652</v>
       </c>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
       <c r="S58" t="s">
         <v>1653</v>
       </c>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
       <c r="Z58" t="s">
         <v>1654</v>
       </c>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
       <c r="AG58" t="s">
         <v>1655</v>
       </c>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
       <c r="AK58" t="s">
         <v>1656</v>
       </c>
-      <c r="AL58"/>
-      <c r="AM58"/>
       <c r="AN58" t="s">
         <v>1657</v>
       </c>
-      <c r="AO58"/>
       <c r="AP58" t="s">
         <v>1658</v>
       </c>
@@ -13820,50 +13030,24 @@
       <c r="I59" t="s">
         <v>1662</v>
       </c>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
       <c r="M59" t="s">
         <v>1663</v>
       </c>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
       <c r="S59" t="s">
         <v>1664</v>
       </c>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
       <c r="Z59" t="s">
         <v>1665</v>
       </c>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59"/>
       <c r="AG59" t="s">
         <v>1666</v>
       </c>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
       <c r="AK59" t="s">
         <v>325</v>
       </c>
-      <c r="AL59"/>
-      <c r="AM59"/>
       <c r="AN59" t="s">
         <v>1667</v>
       </c>
-      <c r="AO59"/>
       <c r="AP59" t="s">
         <v>1668</v>
       </c>
@@ -13881,50 +13065,24 @@
       <c r="I60" t="s">
         <v>1672</v>
       </c>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
       <c r="M60" t="s">
         <v>1673</v>
       </c>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
       <c r="S60" t="s">
         <v>1674</v>
       </c>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
       <c r="Z60" t="s">
         <v>1295</v>
       </c>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
       <c r="AG60" t="s">
         <v>1675</v>
       </c>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
       <c r="AK60" t="s">
         <v>1676</v>
       </c>
-      <c r="AL60"/>
-      <c r="AM60"/>
       <c r="AN60" t="s">
         <v>1677</v>
       </c>
-      <c r="AO60"/>
       <c r="AP60" t="s">
         <v>1678</v>
       </c>
@@ -13942,44 +13100,24 @@
       <c r="I61" t="s">
         <v>1682</v>
       </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
       <c r="M61" t="s">
         <v>1683</v>
       </c>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
       <c r="S61" t="s">
         <v>435</v>
       </c>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
       <c r="Z61" t="s">
         <v>1684</v>
       </c>
       <c r="AG61" t="s">
         <v>1685</v>
       </c>
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
       <c r="AK61" t="s">
         <v>1686</v>
       </c>
-      <c r="AL61"/>
-      <c r="AM61"/>
       <c r="AN61" t="s">
         <v>1687</v>
       </c>
-      <c r="AO61"/>
       <c r="AP61" t="s">
         <v>1688</v>
       </c>
@@ -13997,42 +13135,21 @@
       <c r="I62" t="s">
         <v>1691</v>
       </c>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
       <c r="M62" t="s">
         <v>1692</v>
       </c>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
       <c r="S62" t="s">
         <v>1693</v>
       </c>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
       <c r="AG62" t="s">
         <v>1694</v>
       </c>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
       <c r="AK62" t="s">
         <v>1695</v>
       </c>
-      <c r="AL62"/>
-      <c r="AM62"/>
       <c r="AN62" t="s">
         <v>1696</v>
       </c>
-      <c r="AO62"/>
       <c r="AP62" t="s">
         <v>649</v>
       </c>
@@ -14187,30 +13304,30 @@
         <v>1736</v>
       </c>
       <c r="AG68" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AK68" t="s">
         <v>1737</v>
       </c>
-      <c r="AK68" t="s">
+      <c r="AN68" t="s">
         <v>1738</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="69" spans="1:40">
       <c r="A69" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B69" t="s">
         <v>1740</v>
       </c>
-      <c r="B69" t="s">
+      <c r="I69" t="s">
         <v>1741</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1742</v>
       </c>
       <c r="S69" t="s">
         <v>368</v>
       </c>
       <c r="AG69" t="s">
-        <v>1524</v>
+        <v>1742</v>
       </c>
       <c r="AK69" t="s">
         <v>1743</v>
@@ -14690,377 +13807,515 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
         <v>1877</v>
       </c>
       <c r="I100" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="AG100" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="I101" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>1881</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="I102" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>1884</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="I103" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>1887</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="I104" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>1890</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="I105" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>1893</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="I106" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>1896</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="I107" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>1899</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="I108" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>1902</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="I109" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>1905</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="I110" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>1908</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>1899</v>
+        <v>1910</v>
       </c>
       <c r="I111" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>1911</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>1901</v>
+        <v>1913</v>
       </c>
       <c r="I112" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>1914</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>1903</v>
+        <v>1916</v>
       </c>
       <c r="I113" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>1917</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="I114" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>1920</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>1907</v>
+        <v>1922</v>
       </c>
       <c r="I115" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>1923</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>1909</v>
+        <v>1925</v>
       </c>
       <c r="I116" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>1926</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>1911</v>
+        <v>1928</v>
       </c>
       <c r="I117" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>1929</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>1913</v>
+        <v>1931</v>
       </c>
       <c r="I118" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>1932</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>1915</v>
+        <v>1934</v>
       </c>
       <c r="I119" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>1935</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>1917</v>
+        <v>1937</v>
       </c>
       <c r="I120" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>1938</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>1919</v>
+        <v>1939</v>
       </c>
       <c r="I121" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>1940</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>1921</v>
+        <v>1942</v>
       </c>
       <c r="I122" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>1943</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>1923</v>
+        <v>1945</v>
       </c>
       <c r="I123" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>1946</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>1925</v>
+        <v>1948</v>
       </c>
       <c r="I124" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>1949</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>1927</v>
+        <v>1951</v>
       </c>
       <c r="I125" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>1952</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>1929</v>
+        <v>1954</v>
       </c>
       <c r="I126" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>1955</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>1931</v>
+        <v>1957</v>
       </c>
       <c r="I127" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>1958</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>1933</v>
+        <v>1960</v>
       </c>
       <c r="I128" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="AG128" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>1934</v>
+        <v>1962</v>
       </c>
       <c r="I129" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="AG129" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>1935</v>
+        <v>1964</v>
       </c>
       <c r="I130" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="AG130" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>1936</v>
+        <v>1966</v>
       </c>
       <c r="I131" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="AG131" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>1937</v>
+        <v>1968</v>
       </c>
       <c r="I132" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="AG132" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>1938</v>
+        <v>1970</v>
       </c>
       <c r="I133" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>1971</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>1940</v>
+        <v>1973</v>
       </c>
       <c r="I134" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="AG134" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>1941</v>
+        <v>1975</v>
       </c>
       <c r="I135" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="AG135" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>1942</v>
+        <v>1977</v>
       </c>
       <c r="I136" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="AG136" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>1943</v>
+        <v>1979</v>
       </c>
       <c r="I137" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="AG137" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>1944</v>
+        <v>1981</v>
       </c>
       <c r="I138" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="AG138" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>1945</v>
+        <v>1983</v>
       </c>
       <c r="I139" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="AG139" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>1946</v>
+        <v>1985</v>
       </c>
       <c r="I140" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="AG140" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>1947</v>
+        <v>1987</v>
       </c>
       <c r="I141" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="AG141" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>1948</v>
+        <v>1989</v>
       </c>
       <c r="I142" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="AG142" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>1949</v>
+        <v>1991</v>
       </c>
       <c r="I143" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="AG143" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>1950</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="AG144" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>1951</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>1234</v>
       </c>
+      <c r="AG145" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>1952</v>
+        <v>1997</v>
       </c>
       <c r="I146" t="s">
         <v>1258</v>
@@ -15068,7 +14323,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>1953</v>
+        <v>1998</v>
       </c>
       <c r="I147" t="s">
         <v>1282</v>
@@ -15076,7 +14331,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>1954</v>
+        <v>1999</v>
       </c>
       <c r="I148" t="s">
         <v>1307</v>
@@ -15084,7 +14339,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>1955</v>
+        <v>2000</v>
       </c>
       <c r="I149" t="s">
         <v>1332</v>
@@ -15092,7 +14347,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>1956</v>
+        <v>2001</v>
       </c>
       <c r="I150" t="s">
         <v>1355</v>
@@ -15100,7 +14355,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>1957</v>
+        <v>2002</v>
       </c>
       <c r="I151" t="s">
         <v>1376</v>
@@ -15108,7 +14363,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>1958</v>
+        <v>2003</v>
       </c>
       <c r="I152" t="s">
         <v>1398</v>
@@ -15116,7 +14371,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>1959</v>
+        <v>2004</v>
       </c>
       <c r="I153" t="s">
         <v>1417</v>
@@ -15124,7 +14379,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>1960</v>
+        <v>2005</v>
       </c>
       <c r="I154" t="s">
         <v>736</v>
@@ -15132,7 +14387,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>1961</v>
+        <v>2006</v>
       </c>
       <c r="I155" t="s">
         <v>1452</v>
@@ -15140,7 +14395,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>1962</v>
+        <v>2007</v>
       </c>
       <c r="I156" t="s">
         <v>1469</v>
@@ -15148,7 +14403,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>1963</v>
+        <v>2008</v>
       </c>
       <c r="I157" t="s">
         <v>1487</v>
@@ -15156,7 +14411,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>1964</v>
+        <v>2009</v>
       </c>
       <c r="I158" t="s">
         <v>781</v>
@@ -15164,7 +14419,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>1965</v>
+        <v>2010</v>
       </c>
       <c r="I159" t="s">
         <v>1503</v>
@@ -15172,7 +14427,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>1966</v>
+        <v>2011</v>
       </c>
       <c r="I160" t="s">
         <v>1518</v>
@@ -15180,7 +14435,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>1967</v>
+        <v>2012</v>
       </c>
       <c r="I161" t="s">
         <v>1531</v>
@@ -15188,7 +14443,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>1968</v>
+        <v>2013</v>
       </c>
       <c r="I162" t="s">
         <v>1544</v>
@@ -15196,7 +14451,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>1969</v>
+        <v>2014</v>
       </c>
       <c r="I163" t="s">
         <v>1558</v>
@@ -15204,7 +14459,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="I164" t="s">
         <v>1570</v>
@@ -15212,7 +14467,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>1971</v>
+        <v>2016</v>
       </c>
       <c r="I165" t="s">
         <v>1583</v>
@@ -15220,7 +14475,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>1972</v>
+        <v>2017</v>
       </c>
       <c r="I166" t="s">
         <v>1595</v>
@@ -15228,7 +14483,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>1973</v>
+        <v>2018</v>
       </c>
       <c r="I167" t="s">
         <v>1606</v>
@@ -15236,7 +14491,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>1974</v>
+        <v>2019</v>
       </c>
       <c r="I168" t="s">
         <v>1617</v>
@@ -15244,7 +14499,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>1975</v>
+        <v>2020</v>
       </c>
       <c r="I169" t="s">
         <v>1628</v>
@@ -15252,7 +14507,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>1976</v>
+        <v>2021</v>
       </c>
       <c r="I170" t="s">
         <v>1639</v>
@@ -15260,7 +14515,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>1977</v>
+        <v>2022</v>
       </c>
       <c r="I171" t="s">
         <v>1651</v>
@@ -15268,7 +14523,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>1978</v>
+        <v>2023</v>
       </c>
       <c r="I172" t="s">
         <v>1662</v>
@@ -15276,7 +14531,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>1979</v>
+        <v>2024</v>
       </c>
       <c r="I173" t="s">
         <v>1672</v>
@@ -15284,7 +14539,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>1980</v>
+        <v>2025</v>
       </c>
       <c r="I174" t="s">
         <v>1682</v>
@@ -15292,7 +14547,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>1981</v>
+        <v>2026</v>
       </c>
       <c r="I175" t="s">
         <v>1691</v>
@@ -15300,7 +14555,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>1982</v>
+        <v>2027</v>
       </c>
       <c r="I176" t="s">
         <v>1700</v>
@@ -15308,7 +14563,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>1983</v>
+        <v>2028</v>
       </c>
       <c r="I177" t="s">
         <v>1706</v>
@@ -15316,7 +14571,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>1984</v>
+        <v>2029</v>
       </c>
       <c r="I178" t="s">
         <v>1713</v>
@@ -15324,7 +14579,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>1985</v>
+        <v>2030</v>
       </c>
       <c r="I179" t="s">
         <v>1721</v>
@@ -15332,7 +14587,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>1986</v>
+        <v>2031</v>
       </c>
       <c r="I180" t="s">
         <v>1728</v>
@@ -15340,7 +14595,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>1987</v>
+        <v>2032</v>
       </c>
       <c r="I181" t="s">
         <v>1735</v>
@@ -15348,15 +14603,15 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>1988</v>
+        <v>2033</v>
       </c>
       <c r="I182" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>1989</v>
+        <v>2034</v>
       </c>
       <c r="I183" t="s">
         <v>1746</v>
@@ -15364,7 +14619,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>1990</v>
+        <v>2035</v>
       </c>
       <c r="I184" t="s">
         <v>1751</v>
@@ -15372,7 +14627,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>1991</v>
+        <v>2036</v>
       </c>
       <c r="I185" t="s">
         <v>1757</v>
@@ -15380,7 +14635,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>1992</v>
+        <v>2037</v>
       </c>
       <c r="I186" t="s">
         <v>1763</v>
@@ -15388,7 +14643,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>1993</v>
+        <v>2038</v>
       </c>
       <c r="I187" t="s">
         <v>1769</v>
@@ -15396,7 +14651,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>1994</v>
+        <v>2039</v>
       </c>
       <c r="I188" t="s">
         <v>1774</v>
@@ -15404,7 +14659,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>1995</v>
+        <v>2040</v>
       </c>
       <c r="I189" t="s">
         <v>1780</v>
@@ -15412,7 +14667,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>1996</v>
+        <v>2041</v>
       </c>
       <c r="I190" t="s">
         <v>1786</v>
@@ -15420,7 +14675,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>1997</v>
+        <v>2042</v>
       </c>
       <c r="I191" t="s">
         <v>1792</v>
@@ -15428,7 +14683,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>1998</v>
+        <v>2043</v>
       </c>
       <c r="I192" t="s">
         <v>1797</v>
@@ -15436,7 +14691,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>1999</v>
+        <v>2044</v>
       </c>
       <c r="I193" t="s">
         <v>1802</v>
@@ -15444,7 +14699,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>2000</v>
+        <v>2045</v>
       </c>
       <c r="I194" t="s">
         <v>1807</v>
@@ -15452,7 +14707,7 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>2001</v>
+        <v>2046</v>
       </c>
       <c r="I195" t="s">
         <v>1812</v>
@@ -15460,7 +14715,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>2002</v>
+        <v>2047</v>
       </c>
       <c r="I196" t="s">
         <v>1817</v>
@@ -15468,7 +14723,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>2003</v>
+        <v>2048</v>
       </c>
       <c r="I197" t="s">
         <v>1822</v>
@@ -15476,7 +14731,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>2004</v>
+        <v>2049</v>
       </c>
       <c r="I198" t="s">
         <v>1826</v>
@@ -15484,7 +14739,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>2005</v>
+        <v>2050</v>
       </c>
       <c r="I199" t="s">
         <v>1831</v>
@@ -15492,7 +14747,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>2006</v>
+        <v>2051</v>
       </c>
       <c r="I200" t="s">
         <v>1836</v>
@@ -15500,7 +14755,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>2007</v>
+        <v>2052</v>
       </c>
       <c r="I201" t="s">
         <v>1841</v>
@@ -15508,7 +14763,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>2008</v>
+        <v>2053</v>
       </c>
       <c r="I202" t="s">
         <v>1845</v>
@@ -15516,7 +14771,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>2009</v>
+        <v>2054</v>
       </c>
       <c r="I203" t="s">
         <v>1848</v>
@@ -15524,7 +14779,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>2010</v>
+        <v>2055</v>
       </c>
       <c r="I204" t="s">
         <v>1851</v>
@@ -15532,7 +14787,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>2011</v>
+        <v>2056</v>
       </c>
       <c r="I205" t="s">
         <v>1854</v>
@@ -15540,7 +14795,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>2012</v>
+        <v>2057</v>
       </c>
       <c r="I206" t="s">
         <v>1857</v>
@@ -15548,7 +14803,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>2013</v>
+        <v>2058</v>
       </c>
       <c r="I207" t="s">
         <v>1860</v>
@@ -15556,7 +14811,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>2014</v>
+        <v>2059</v>
       </c>
       <c r="I208" t="s">
         <v>1863</v>
@@ -15564,7 +14819,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>2015</v>
+        <v>2060</v>
       </c>
       <c r="I209" t="s">
         <v>1866</v>
@@ -15572,7 +14827,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>2016</v>
+        <v>2061</v>
       </c>
       <c r="I210" t="s">
         <v>1869</v>
@@ -15580,7 +14835,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>2017</v>
+        <v>2062</v>
       </c>
       <c r="I211" t="s">
         <v>1872</v>
@@ -15588,7 +14843,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>2018</v>
+        <v>2063</v>
       </c>
       <c r="I212" t="s">
         <v>1875</v>
@@ -15596,7 +14851,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>2019</v>
+        <v>2064</v>
       </c>
       <c r="I213" t="s">
         <v>1878</v>
@@ -15604,522 +14859,522 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>2020</v>
+        <v>2065</v>
       </c>
       <c r="I214" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>2021</v>
+        <v>2066</v>
       </c>
       <c r="I215" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>2022</v>
+        <v>2067</v>
       </c>
       <c r="I216" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>2023</v>
+        <v>2068</v>
       </c>
       <c r="I217" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>2024</v>
+        <v>2069</v>
       </c>
       <c r="I218" t="s">
-        <v>1888</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="I219" t="s">
-        <v>1890</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>2026</v>
+        <v>2071</v>
       </c>
       <c r="I220" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>2027</v>
+        <v>2072</v>
       </c>
       <c r="I221" t="s">
-        <v>1894</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>2028</v>
+        <v>2073</v>
       </c>
       <c r="I222" t="s">
-        <v>1896</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>2029</v>
+        <v>2074</v>
       </c>
       <c r="I223" t="s">
-        <v>1898</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>2030</v>
+        <v>2075</v>
       </c>
       <c r="I224" t="s">
-        <v>1900</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>2031</v>
+        <v>2076</v>
       </c>
       <c r="I225" t="s">
-        <v>1902</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>2032</v>
+        <v>2077</v>
       </c>
       <c r="I226" t="s">
-        <v>1904</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>2033</v>
+        <v>2078</v>
       </c>
       <c r="I227" t="s">
-        <v>1906</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>2034</v>
+        <v>2079</v>
       </c>
       <c r="I228" t="s">
-        <v>1908</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>2035</v>
+        <v>2080</v>
       </c>
       <c r="I229" t="s">
-        <v>1910</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>2036</v>
+        <v>2081</v>
       </c>
       <c r="I230" t="s">
-        <v>1912</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>2037</v>
+        <v>2082</v>
       </c>
       <c r="I231" t="s">
-        <v>1914</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>2038</v>
+        <v>2083</v>
       </c>
       <c r="I232" t="s">
-        <v>1916</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>2039</v>
+        <v>2084</v>
       </c>
       <c r="I233" t="s">
-        <v>1918</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>2040</v>
+        <v>2085</v>
       </c>
       <c r="I234" t="s">
-        <v>1920</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>2041</v>
+        <v>2086</v>
       </c>
       <c r="I235" t="s">
-        <v>1922</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>2042</v>
+        <v>2087</v>
       </c>
       <c r="I236" t="s">
-        <v>1924</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>2043</v>
+        <v>2088</v>
       </c>
       <c r="I237" t="s">
-        <v>1926</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>2044</v>
+        <v>2089</v>
       </c>
       <c r="I238" t="s">
-        <v>1928</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>2045</v>
+        <v>2090</v>
       </c>
       <c r="I239" t="s">
-        <v>1930</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>2046</v>
+        <v>2091</v>
       </c>
       <c r="I240" t="s">
-        <v>2047</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>2048</v>
+        <v>2093</v>
       </c>
       <c r="I241" t="s">
-        <v>2049</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>2050</v>
+        <v>2095</v>
       </c>
       <c r="I242" t="s">
-        <v>2051</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>2052</v>
+        <v>2097</v>
       </c>
       <c r="I243" t="s">
-        <v>2053</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>2054</v>
+        <v>2099</v>
       </c>
       <c r="I244" t="s">
-        <v>2055</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>2056</v>
+        <v>2101</v>
       </c>
       <c r="I245" t="s">
-        <v>2057</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>2058</v>
+        <v>2103</v>
       </c>
       <c r="I246" t="s">
-        <v>2059</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>2060</v>
+        <v>2105</v>
       </c>
       <c r="I247" t="s">
-        <v>2061</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>2062</v>
+        <v>2107</v>
       </c>
       <c r="I248" t="s">
-        <v>2063</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>2064</v>
+        <v>2109</v>
       </c>
       <c r="I249" t="s">
-        <v>2065</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>2066</v>
+        <v>2111</v>
       </c>
       <c r="I250" t="s">
-        <v>2067</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>2068</v>
+        <v>2113</v>
       </c>
       <c r="I251" t="s">
-        <v>2069</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>2070</v>
+        <v>2115</v>
       </c>
       <c r="I252" t="s">
-        <v>2071</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>2072</v>
+        <v>2117</v>
       </c>
       <c r="I253" t="s">
-        <v>2073</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>2074</v>
+        <v>2119</v>
       </c>
       <c r="I254" t="s">
-        <v>2075</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>2076</v>
+        <v>2121</v>
       </c>
       <c r="I255" t="s">
-        <v>2077</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>2078</v>
+        <v>2123</v>
       </c>
       <c r="I256" t="s">
-        <v>2079</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>2080</v>
+        <v>2125</v>
       </c>
       <c r="I257" t="s">
-        <v>2081</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>2082</v>
+        <v>2127</v>
       </c>
       <c r="I258" t="s">
-        <v>2083</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>2084</v>
+        <v>2129</v>
       </c>
       <c r="I259" t="s">
-        <v>2085</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>2086</v>
+        <v>2131</v>
       </c>
       <c r="I260" t="s">
-        <v>2087</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>2088</v>
+        <v>2133</v>
       </c>
       <c r="I261" t="s">
-        <v>2089</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>2090</v>
+        <v>2135</v>
       </c>
       <c r="I262" t="s">
-        <v>2091</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>2092</v>
+        <v>2137</v>
       </c>
       <c r="I263" t="s">
-        <v>2093</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>2094</v>
+        <v>2139</v>
       </c>
       <c r="I264" t="s">
-        <v>2095</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>2096</v>
+        <v>2141</v>
       </c>
       <c r="I265" t="s">
-        <v>2097</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>2098</v>
+        <v>2143</v>
       </c>
       <c r="I266" t="s">
-        <v>2099</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>2100</v>
+        <v>2145</v>
       </c>
       <c r="I267" t="s">
-        <v>2101</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>2102</v>
+        <v>2147</v>
       </c>
       <c r="I268" t="s">
-        <v>2103</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>2104</v>
+        <v>2149</v>
       </c>
       <c r="I269" t="s">
-        <v>2105</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" t="s">
-        <v>2106</v>
+        <v>2151</v>
       </c>
       <c r="I270" t="s">
-        <v>2107</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>2108</v>
+        <v>2153</v>
       </c>
       <c r="I271" t="s">
-        <v>2109</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>2110</v>
+        <v>2155</v>
       </c>
       <c r="I272" t="s">
-        <v>2111</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>2112</v>
+        <v>2157</v>
       </c>
       <c r="I273" t="s">
-        <v>2113</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>2114</v>
+        <v>2159</v>
       </c>
       <c r="I274" t="s">
-        <v>2115</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>2116</v>
+        <v>2161</v>
       </c>
       <c r="I275" t="s">
-        <v>2117</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>2118</v>
+        <v>2163</v>
       </c>
       <c r="I276" t="s">
-        <v>2119</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>2120</v>
+        <v>2165</v>
       </c>
       <c r="I277" t="s">
-        <v>2121</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>2122</v>
+        <v>2167</v>
       </c>
       <c r="I278" t="s">
-        <v>2123</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -16127,92 +15382,92 @@
         <v>1679</v>
       </c>
       <c r="I279" t="s">
-        <v>2124</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>2125</v>
+        <v>2170</v>
       </c>
       <c r="I280" t="s">
-        <v>2126</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>2127</v>
+        <v>2172</v>
       </c>
       <c r="I281" t="s">
-        <v>2128</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>2129</v>
+        <v>2174</v>
       </c>
       <c r="I282" t="s">
-        <v>2130</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>2131</v>
+        <v>2176</v>
       </c>
       <c r="I283" t="s">
-        <v>2132</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>2133</v>
+        <v>2178</v>
       </c>
       <c r="I284" t="s">
-        <v>2134</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>2135</v>
+        <v>2180</v>
       </c>
       <c r="I285" t="s">
-        <v>2136</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>2137</v>
+        <v>2182</v>
       </c>
       <c r="I286" t="s">
-        <v>2138</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>2139</v>
+        <v>2184</v>
       </c>
       <c r="I287" t="s">
-        <v>2140</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>2141</v>
+        <v>2186</v>
       </c>
       <c r="I288" t="s">
-        <v>2142</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>2143</v>
+        <v>2188</v>
       </c>
       <c r="I289" t="s">
-        <v>2144</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>2145</v>
+        <v>2190</v>
       </c>
       <c r="I290" t="s">
         <v>696</v>
@@ -16220,39 +15475,39 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>2146</v>
+        <v>2191</v>
       </c>
       <c r="I291" t="s">
-        <v>2147</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>2148</v>
+        <v>2193</v>
       </c>
       <c r="I292" t="s">
-        <v>2149</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>2150</v>
+        <v>2195</v>
       </c>
       <c r="I293" t="s">
-        <v>2151</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>2152</v>
+        <v>2197</v>
       </c>
       <c r="I294" t="s">
-        <v>2153</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>2154</v>
+        <v>2199</v>
       </c>
       <c r="I295" t="s">
         <v>1675</v>
@@ -16265,32 +15520,32 @@
     </row>
     <row r="297" spans="9:9">
       <c r="I297" t="s">
-        <v>2155</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="298" spans="9:9">
       <c r="I298" t="s">
-        <v>2156</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="299" spans="9:9">
       <c r="I299" t="s">
-        <v>2157</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="300" spans="9:9">
       <c r="I300" t="s">
-        <v>2158</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="301" spans="9:9">
       <c r="I301" t="s">
-        <v>2159</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="302" spans="9:9">
       <c r="I302" t="s">
-        <v>2160</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="303" spans="9:9">
@@ -16300,32 +15555,32 @@
     </row>
     <row r="304" spans="9:9">
       <c r="I304" t="s">
-        <v>2161</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="305" spans="9:9">
       <c r="I305" t="s">
-        <v>2162</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="306" spans="9:9">
       <c r="I306" t="s">
-        <v>2163</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="307" spans="9:9">
       <c r="I307" t="s">
-        <v>2164</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="308" spans="9:9">
       <c r="I308" t="s">
-        <v>2165</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="309" spans="9:9">
       <c r="I309" t="s">
-        <v>2166</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="310" spans="9:9">
@@ -16335,12 +15590,12 @@
     </row>
     <row r="311" spans="9:9">
       <c r="I311" t="s">
-        <v>2167</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="312" spans="9:9">
       <c r="I312" t="s">
-        <v>2168</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="313" spans="9:9">
@@ -16350,17 +15605,17 @@
     </row>
     <row r="314" spans="9:9">
       <c r="I314" t="s">
-        <v>2169</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="315" spans="9:9">
       <c r="I315" t="s">
-        <v>2170</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="316" spans="9:9">
       <c r="I316" t="s">
-        <v>2171</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="317" spans="9:9">
@@ -16370,32 +15625,32 @@
     </row>
     <row r="318" spans="9:9">
       <c r="I318" t="s">
-        <v>2172</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="319" spans="9:9">
       <c r="I319" t="s">
-        <v>2173</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="320" spans="9:9">
       <c r="I320" t="s">
-        <v>2174</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="321" spans="9:9">
       <c r="I321" t="s">
-        <v>2175</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="322" spans="9:9">
       <c r="I322" t="s">
-        <v>2176</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="323" spans="9:9">
       <c r="I323" t="s">
-        <v>2177</v>
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
